--- a/downloads/notebooks/word2vec_numerical_demo.xlsx
+++ b/downloads/notebooks/word2vec_numerical_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricKim\Documents\aegis4048.github.io-source\content\downloads\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E3482-6F3F-4671-8895-C02EF1B82F93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FA7306-C2C8-4A6B-BDF4-FCB4BCFC0D82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="3" xr2:uid="{1F5C5C51-52F8-4C6D-9E63-A97493B2A8A4}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="5" xr2:uid="{1F5C5C51-52F8-4C6D-9E63-A97493B2A8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="hidden">Sheet5!$C$5:$C$7</definedName>
     <definedName name="input">Sheet4!$D$18:$D$25</definedName>
     <definedName name="sum_error">Sheet5!$E$5:$E$12</definedName>
-    <definedName name="Woutput">Sheet1!$E$20:$G$27</definedName>
+    <definedName name="Woutput">Sheet2!$E$5:$G$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>the</t>
   </si>
@@ -98,9 +98,6 @@
     <t>(1X3)</t>
   </si>
   <si>
-    <t>Calculating Output Layer</t>
-  </si>
-  <si>
     <t>W_output</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
   </si>
   <si>
     <t>(1X8)</t>
-  </si>
-  <si>
-    <t>Calculating Sum of Prediction Errors</t>
   </si>
   <si>
     <t>y_true</t>
@@ -276,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,12 +301,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -394,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -571,19 +559,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,12 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,17 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -775,36 +823,6 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,6 +836,54 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,8 +1361,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
     <xdr:sp macro="" textlink="">
@@ -1346,601 +1412,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>636608</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>280688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>7717</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7C86F2-1C44-41F4-92C0-BDFDD634DFF1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5559370" y="1599069"/>
-          <a:ext cx="647157" cy="559932"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>223399</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>112154</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="241156" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB5E5BC-FD78-488D-B582-4F77F0A6722E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1892542" y="4218487"/>
-              <a:ext cx="241156" cy="313099"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="2000" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>×</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB5E5BC-FD78-488D-B582-4F77F0A6722E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1892542" y="4218487"/>
-              <a:ext cx="241156" cy="313099"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="2000" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>×</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>188384</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114149</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="TextBox 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470D48F4-6787-46B9-95D1-979139BDBA83}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4470098" y="4220482"/>
-              <a:ext cx="249555" cy="313099"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="2000" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="TextBox 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{470D48F4-6787-46B9-95D1-979139BDBA83}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4470098" y="4220482"/>
-              <a:ext cx="249555" cy="313099"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="2000" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="2000"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>277646</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>13300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>287330</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>203585</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8FF11D-ADAB-40A2-BA4A-B9CC287477B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2639241" y="4845348"/>
-          <a:ext cx="1932827" cy="1472380"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>634895</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>274166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2682</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>185486</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214B267D-7EF4-4648-9220-DF6E17D1FD86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4919803" y="4102948"/>
-          <a:ext cx="650309" cy="1475566"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>272139</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2145</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7865</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914BAF25-C0AF-43C2-A731-683350A057D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6482439" y="4128323"/>
-          <a:ext cx="649849" cy="1485685"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>6590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1863</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>3202</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rectangle 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4558D3C-02F4-4A08-B4F7-BE6273788DE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6467395" y="5577514"/>
-          <a:ext cx="648602" cy="182310"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -2669,72 +2145,6 @@
         <a:xfrm>
           <a:off x="6467203" y="5588240"/>
           <a:ext cx="647930" cy="183302"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>680418</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2414</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641116</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7642</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD95304-8DE6-4F7C-BEE6-B8563A0F9F80}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2372546" y="847452"/>
-          <a:ext cx="1922262" cy="1460844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,14 +3027,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628135</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>277792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2412</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630548</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>4132</xdr:rowOff>
     </xdr:to>
@@ -3641,8 +3051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2993068" y="1599862"/>
-          <a:ext cx="1928054" cy="1482750"/>
+          <a:off x="628135" y="912792"/>
+          <a:ext cx="1917710" cy="1470016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10720,10 +10130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5FEC7-FC6A-4142-907B-9AC559732443}">
-  <dimension ref="B2:S33"/>
+  <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="169" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10735,275 +10145,255 @@
     <col min="11" max="11" width="3.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
+    <row r="2" spans="2:10" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
     </row>
-    <row r="4" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+    <row r="4" spans="2:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
     </row>
-    <row r="5" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+    <row r="5" spans="2:10" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:19" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:10" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="26">
+      <c r="E7" s="90"/>
+      <c r="F7" s="14">
         <v>-7.8E-2</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="15">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="16">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I7" s="95"/>
-      <c r="J7" s="42">
+      <c r="I7" s="90"/>
+      <c r="J7" s="30">
         <f t="array" ref="J7:J9">TRANSPOSE(MMULT(TRANSPOSE(A), B))</f>
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="44">
         <v>1</v>
       </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="103">
+      <c r="E8" s="90"/>
+      <c r="F8" s="81">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G8" s="104">
+      <c r="G8" s="82">
         <v>0.17</v>
       </c>
-      <c r="H8" s="105">
+      <c r="H8" s="83">
         <v>-0.109</v>
       </c>
-      <c r="I8" s="95"/>
-      <c r="J8" s="43">
+      <c r="I8" s="90"/>
+      <c r="J8" s="31">
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="29">
+      <c r="E9" s="90"/>
+      <c r="F9" s="17">
         <v>-0.158</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="18">
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="19">
         <v>-0.151</v>
       </c>
-      <c r="I9" s="95"/>
-      <c r="J9" s="44">
+      <c r="I9" s="90"/>
+      <c r="J9" s="32">
         <v>-0.109</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="29">
+      <c r="E10" s="90"/>
+      <c r="F10" s="17">
         <v>0.15</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="18">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="19">
         <v>0.14499999999999999</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="1"/>
-      <c r="S10">
-        <f t="shared" ref="S10:S17" ca="1" si="0">EXP(I20)</f>
-        <v>0.95781273027492031</v>
-      </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="29">
+      <c r="E11" s="90"/>
+      <c r="F11" s="17">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="18">
         <v>-5.5E-2</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="19">
         <v>0.188</v>
       </c>
-      <c r="I11" s="95"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="1"/>
-      <c r="S11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0198147569810003</v>
-      </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="29">
+      <c r="E12" s="90"/>
+      <c r="F12" s="17">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="18">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="19">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="1"/>
-      <c r="S12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.96767015378133836</v>
-      </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="42">
         <v>0</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="29">
+      <c r="E13" s="90"/>
+      <c r="F13" s="17">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="18">
         <v>-0.06</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="19">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="I13" s="95"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="1"/>
-      <c r="S13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0265000436500131</v>
-      </c>
     </row>
-    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="43">
         <v>0</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="32">
+      <c r="E14" s="90"/>
+      <c r="F14" s="20">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="21">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="22">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I14" s="95"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="1"/>
-      <c r="S14">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0037148831369278</v>
-      </c>
     </row>
-    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
         <v>11</v>
       </c>
@@ -11013,345 +10403,23 @@
       <c r="J15" t="s">
         <v>15</v>
       </c>
-      <c r="S15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98499964324296208</v>
-      </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="O16" s="21"/>
-      <c r="S16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98915226565861858</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="S17">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0422741411046574</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="2:19" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19">
-        <f ca="1">SUM(S10:S17)</f>
-        <v>7.9919386178304377</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="22">
-        <f t="array" ref="C20:C22">TRANSPOSE(MMULT(TRANSPOSE(A), B))</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="E20" s="13">
-        <f ca="1">RANDBETWEEN(-200, 200)/1000</f>
-        <v>-0.13700000000000001</v>
-      </c>
-      <c r="F20" s="13">
-        <f t="shared" ref="F20:G27" ca="1" si="1">RANDBETWEEN(-200, 200)/1000</f>
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.193</v>
-      </c>
-      <c r="I20" s="17">
-        <f t="array" aca="1" ref="I20:I27" ca="1">TRANSPOSE(MMULT(TRANSPOSE(h), TRANSPOSE(Woutput)))</f>
-        <v>-4.3103000000000002E-2</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" ref="L20:L27" ca="1" si="2">EXP(I20)/$S$19</f>
-        <v>0.11984735820392682</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="12">
-        <v>0.17</v>
-      </c>
-      <c r="E21" s="13">
-        <f t="shared" ref="E21:E27" ca="1" si="3">RANDBETWEEN(-200, 200)/1000</f>
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="F21" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="I21" s="18">
-        <f ca="1"/>
-        <v>1.9621E-2</v>
-      </c>
-      <c r="J21" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="99"/>
-      <c r="L21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12760542913902512</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C22" s="23">
-        <v>-0.109</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7E-2</v>
-      </c>
-      <c r="F22" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="I22" s="18">
-        <f ca="1"/>
-        <v>-3.2864000000000004E-2</v>
-      </c>
-      <c r="J22" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="97"/>
-      <c r="L22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12108077902680772</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.189</v>
-      </c>
-      <c r="F23" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.157</v>
-      </c>
-      <c r="G23" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.113</v>
-      </c>
-      <c r="I23" s="18">
-        <f ca="1"/>
-        <v>2.6155000000000001E-2</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12844193289470934</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="F24" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.03</v>
-      </c>
-      <c r="G24" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="I24" s="18">
-        <f ca="1"/>
-        <v>3.7080000000000017E-3</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.1255909149374079</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E25" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.154</v>
-      </c>
-      <c r="F25" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G25" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.158</v>
-      </c>
-      <c r="I25" s="18">
-        <f ca="1"/>
-        <v>-1.5114000000000001E-2</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12324915021811801</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
-      </c>
-      <c r="F26" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.19600000000000001</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.13700000000000001</v>
-      </c>
-      <c r="I26" s="18">
-        <f ca="1"/>
-        <v>-1.0907E-2</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12376875160824778</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E27" s="13">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F27" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G27" s="13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.7000000000000004E-2</v>
-      </c>
-      <c r="I27" s="19">
-        <f ca="1"/>
-        <v>4.1404999999999997E-2</v>
-      </c>
-      <c r="L27" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.13041568397175732</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="K28" s="97"/>
-      <c r="L28" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="S31" t="e">
-        <f>EXP(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="3:19" s="10" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S33" t="e">
-        <f>SUM(S24:S31)</f>
-        <v>#REF!</v>
-      </c>
+    <row r="16" spans="2:10" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B31:J31"/>
+  <mergeCells count="4">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="E7:E14"/>
     <mergeCell ref="I7:I14"/>
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11362,8 +10430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E3C9C-B15E-4422-9BFC-70661AC95FB9}">
   <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="156" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11375,227 +10443,220 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="61"/>
-      <c r="C2" s="93" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:19" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:19" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
         <v>21</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>22</v>
       </c>
       <c r="S4"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="81">
+      <c r="C5" s="69">
         <f>Sheet1!J7</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="14">
         <v>0.192</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="15">
         <v>0.17599999999999999</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="16">
         <v>1.2E-2</v>
       </c>
-      <c r="I5" s="45">
-        <f t="array" aca="1" ref="I5:I12" ca="1">TRANSPOSE(MMULT(TRANSPOSE(h), TRANSPOSE(Woutput)))</f>
-        <v>-4.3103000000000002E-2</v>
-      </c>
-      <c r="L5" s="35">
-        <f t="shared" ref="L5:L12" ca="1" si="0">EXP(I5)/$O$20</f>
-        <v>0.19250533833819125</v>
+      <c r="I5" s="33">
+        <f t="array" ref="I5:I12">TRANSPOSE(MMULT(TRANSPOSE(h), TRANSPOSE(Woutput)))</f>
+        <v>4.1668000000000004E-2</v>
+      </c>
+      <c r="L5" s="23">
+        <f t="shared" ref="L5:L12" si="0">EXP(I5)/$O$20</f>
+        <v>0.20560533709849343</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="81">
+      <c r="C6" s="69">
         <f>Sheet1!J8</f>
         <v>0.17</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="18">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="19">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="I6" s="46">
-        <f ca="1"/>
-        <v>1.9621E-2</v>
-      </c>
-      <c r="J6" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="102"/>
-      <c r="L6" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20496677338852892</v>
+      <c r="I6" s="34">
+        <v>2.0144000000000002E-2</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="95"/>
+      <c r="L6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.20122717463313133</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="81">
+      <c r="C7" s="69">
         <f>Sheet1!J9</f>
         <v>-0.109</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="17">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="18">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="19">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I7" s="46">
-        <f ca="1"/>
-        <v>-3.2864000000000004E-2</v>
-      </c>
-      <c r="J7" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19448652587857942</v>
-      </c>
-      <c r="S7" s="10"/>
+      <c r="I7" s="34">
+        <v>6.3549999999999995E-3</v>
+      </c>
+      <c r="J7" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="94"/>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.19847149581253729</v>
+      </c>
+      <c r="S7" s="6"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="29">
+      <c r="E8" s="17">
         <v>1.4E-2</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="18">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="19">
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="I8" s="46">
-        <f ca="1"/>
-        <v>2.6155000000000001E-2</v>
-      </c>
-      <c r="L8" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20631041117014071</v>
+      <c r="I8" s="34">
+        <v>6.7679999999999997E-3</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.19855348146918061</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="29">
+      <c r="E9" s="17">
         <v>-1.2E-2</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="18">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="19">
         <v>0.14699999999999999</v>
       </c>
-      <c r="I9" s="46">
-        <f ca="1"/>
-        <v>3.7080000000000017E-3</v>
-      </c>
-      <c r="L9" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20173095122455978</v>
+      <c r="I9" s="34">
+        <v>-5.448999999999999E-3</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.19614251098665736</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="29">
+      <c r="E10" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="18">
         <v>0.111</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="19">
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="I10" s="46">
-        <f ca="1"/>
-        <v>-1.5114000000000001E-2</v>
-      </c>
-      <c r="L10" s="36">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19796948149880852</v>
+      <c r="I10" s="34">
+        <v>3.0327E-2</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.2032867394296578</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="29">
+      <c r="E11" s="17">
         <v>1.6E-2</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="18">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="19">
         <v>-0.19800000000000001</v>
       </c>
-      <c r="I11" s="46">
-        <f ca="1"/>
-        <v>-1.0907E-2</v>
-      </c>
-      <c r="L11" s="57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19880409348281008</v>
+      <c r="I11" s="34">
+        <v>5.2419999999999994E-2</v>
+      </c>
+      <c r="L11" s="45">
+        <f t="shared" si="0"/>
+        <v>0.20782793294626919</v>
       </c>
       <c r="S11">
-        <f ca="1">EXP(I5)</f>
-        <v>0.95781273027492031</v>
+        <f>EXP(I5)</f>
+        <v>1.0425482952534584</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E12" s="32">
+      <c r="E12" s="20">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="21">
         <v>-1.6E-2</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="22">
         <v>0.14799999999999999</v>
       </c>
-      <c r="I12" s="47">
-        <f ca="1"/>
-        <v>4.1404999999999997E-2</v>
-      </c>
-      <c r="L12" s="58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20948075738866956</v>
+      <c r="I12" s="35">
+        <v>-2.0756E-2</v>
+      </c>
+      <c r="L12" s="46">
+        <f t="shared" si="0"/>
+        <v>0.19316301928611793</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S15" ca="1" si="1">EXP(I6)</f>
-        <v>1.0198147569810003</v>
+        <f t="shared" ref="S12:S15" si="1">EXP(I6)</f>
+        <v>1.0203482595976749</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -11603,70 +10664,70 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="24">
+      <c r="J13" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="94"/>
+      <c r="L13" s="12">
         <v>1</v>
       </c>
-      <c r="O13" s="37">
-        <f ca="1">SUM(L5:L12)</f>
-        <v>1.606254332370288</v>
+      <c r="O13" s="25">
+        <f>SUM(L5:L12)</f>
+        <v>1.6042776916620449</v>
       </c>
       <c r="S13">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96767015378133836</v>
+        <f t="shared" si="1"/>
+        <v>1.0063752358560776</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="25" t="s">
-        <v>24</v>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="S14">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0265000436500131</v>
+        <f t="shared" si="1"/>
+        <v>1.0067909546685119</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="N15" s="38">
-        <f ca="1">SUM(L5:L12)</f>
-        <v>1.606254332370288</v>
+      <c r="N15" s="26">
+        <f>SUM(L5:L12)</f>
+        <v>1.6042776916620449</v>
       </c>
       <c r="S15">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0037148831369278</v>
+        <f t="shared" si="1"/>
+        <v>0.99456581887227069</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="O16">
-        <f ca="1">EXP(I10)</f>
-        <v>0.98499964324296208</v>
+        <f>EXP(I10)</f>
+        <v>1.0307915476848617</v>
       </c>
     </row>
     <row r="17" spans="15:19" x14ac:dyDescent="0.55000000000000004">
       <c r="O17">
-        <f ca="1">EXP(I11)</f>
-        <v>0.98915226565861858</v>
+        <f>EXP(I11)</f>
+        <v>1.0538182532459692</v>
       </c>
     </row>
     <row r="18" spans="15:19" x14ac:dyDescent="0.55000000000000004">
       <c r="O18">
-        <f ca="1">EXP(I12)</f>
-        <v>1.0422741411046574</v>
+        <f>EXP(I12)</f>
+        <v>0.9794579231485756</v>
       </c>
     </row>
     <row r="20" spans="15:19" x14ac:dyDescent="0.55000000000000004">
       <c r="O20">
-        <f ca="1">SUM(S11:S18)</f>
-        <v>4.9755125678241994</v>
+        <f>SUM(S11:S18)</f>
+        <v>5.0706285642479934</v>
       </c>
     </row>
     <row r="32" spans="15:19" x14ac:dyDescent="0.55000000000000004">
@@ -11698,8 +10759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDAFE45-AAB0-4B28-9194-70E42AE7E230}">
   <dimension ref="B2:S13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11714,391 +10775,391 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="61"/>
-      <c r="C2" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
     </row>
     <row r="3" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:19" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
+    <row r="4" spans="2:19" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>27</v>
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S4"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="41">
-        <f ca="1">Sheet2!L5</f>
-        <v>0.19250533833819125</v>
+      <c r="C5" s="29">
+        <f>Sheet2!L5</f>
+        <v>0.20560533709849343</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="45">
-        <f ca="1">C5-E5</f>
-        <v>0.19250533833819125</v>
+      <c r="G5" s="33">
+        <f>C5-E5</f>
+        <v>0.20560533709849343</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="41">
-        <f t="shared" ref="I5:I12" ca="1" si="0">C5</f>
-        <v>0.19250533833819125</v>
+      <c r="I5" s="29">
+        <f t="shared" ref="I5:I12" si="0">C5</f>
+        <v>0.20560533709849343</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <v>0</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="45">
-        <f ca="1">I5-K5</f>
-        <v>0.19250533833819125</v>
+      <c r="M5" s="33">
+        <f>I5-K5</f>
+        <v>0.20560533709849343</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="64">
-        <f ca="1">G5+M5</f>
-        <v>0.3850106766763825</v>
+      <c r="O5" s="52">
+        <f>G5+M5</f>
+        <v>0.41121067419698687</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="48">
-        <f ca="1">Sheet2!L6</f>
-        <v>0.20496677338852892</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="36">
+        <f>Sheet2!L6</f>
+        <v>0.20122717463313133</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="46">
-        <f t="shared" ref="G6:G12" ca="1" si="1">C6-E6</f>
-        <v>0.20496677338852892</v>
+      <c r="G6" s="34">
+        <f t="shared" ref="G6:G12" si="1">C6-E6</f>
+        <v>0.20122717463313133</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20496677338852892</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="I6" s="36">
+        <f t="shared" si="0"/>
+        <v>0.20122717463313133</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="8">
         <v>0</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="46">
-        <f t="shared" ref="M6:M12" ca="1" si="2">I6-K6</f>
-        <v>0.20496677338852892</v>
+      <c r="M6" s="34">
+        <f t="shared" ref="M6:M12" si="2">I6-K6</f>
+        <v>0.20122717463313133</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="65">
-        <f t="shared" ref="O6:O12" ca="1" si="3">G6+M6</f>
-        <v>0.40993354677705784</v>
+      <c r="O6" s="53">
+        <f t="shared" ref="O6:O12" si="3">G6+M6</f>
+        <v>0.40245434926626267</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="48">
-        <f ca="1">Sheet3!O5</f>
-        <v>0.3850106766763825</v>
+      <c r="C7" s="36">
+        <f>Sheet3!O5</f>
+        <v>0.41121067419698687</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3850106766763825</v>
+      <c r="G7" s="34">
+        <f t="shared" si="1"/>
+        <v>0.41121067419698687</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3850106766763825</v>
+      <c r="I7" s="36">
+        <f t="shared" si="0"/>
+        <v>0.41121067419698687</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="8">
         <v>0</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="46">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.3850106766763825</v>
+      <c r="M7" s="34">
+        <f t="shared" si="2"/>
+        <v>0.41121067419698687</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="65">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.770021353352765</v>
+      <c r="O7" s="53">
+        <f t="shared" si="3"/>
+        <v>0.82242134839397374</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="48">
-        <f ca="1">Sheet2!L8</f>
-        <v>0.20631041117014071</v>
+      <c r="C8" s="36">
+        <f>Sheet2!L8</f>
+        <v>0.19855348146918061</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20631041117014071</v>
+      <c r="G8" s="34">
+        <f t="shared" si="1"/>
+        <v>0.19855348146918061</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20631041117014071</v>
+      <c r="I8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.19855348146918061</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="8">
         <v>0</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="46">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20631041117014071</v>
+      <c r="M8" s="34">
+        <f t="shared" si="2"/>
+        <v>0.19855348146918061</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="65">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.41262082234028141</v>
+      <c r="O8" s="53">
+        <f t="shared" si="3"/>
+        <v>0.39710696293836123</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="48">
-        <f ca="1">Sheet2!L9</f>
-        <v>0.20173095122455978</v>
+      <c r="C9" s="36">
+        <f>Sheet2!L9</f>
+        <v>0.19614251098665736</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20173095122455978</v>
+      <c r="G9" s="34">
+        <f t="shared" si="1"/>
+        <v>0.19614251098665736</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20173095122455978</v>
+      <c r="I9" s="36">
+        <f t="shared" si="0"/>
+        <v>0.19614251098665736</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="8">
         <v>0</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="46">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.20173095122455978</v>
+      <c r="M9" s="34">
+        <f t="shared" si="2"/>
+        <v>0.19614251098665736</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="65">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.40346190244911956</v>
+      <c r="O9" s="53">
+        <f t="shared" si="3"/>
+        <v>0.39228502197331472</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="48">
-        <f ca="1">Sheet2!L10</f>
-        <v>0.19796948149880852</v>
+      <c r="C10" s="36">
+        <f>Sheet2!L10</f>
+        <v>0.2032867394296578</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19796948149880852</v>
+      <c r="G10" s="34">
+        <f t="shared" si="1"/>
+        <v>0.2032867394296578</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19796948149880852</v>
+      <c r="I10" s="36">
+        <f t="shared" si="0"/>
+        <v>0.2032867394296578</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="8">
         <v>0</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="46">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19796948149880852</v>
+      <c r="M10" s="34">
+        <f t="shared" si="2"/>
+        <v>0.2032867394296578</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="65">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.39593896299761705</v>
+      <c r="O10" s="53">
+        <f t="shared" si="3"/>
+        <v>0.40657347885931561</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="48">
-        <f ca="1">Sheet2!L11</f>
-        <v>0.19880409348281008</v>
-      </c>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="36">
+        <f>Sheet2!L11</f>
+        <v>0.20782793294626919</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="47">
         <v>1</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="62">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.80119590651718986</v>
+      <c r="G11" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.79217206705373078</v>
       </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="48">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19880409348281008</v>
-      </c>
-      <c r="J11" s="40" t="s">
+      <c r="I11" s="36">
+        <f t="shared" si="0"/>
+        <v>0.20782793294626919</v>
+      </c>
+      <c r="J11" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="8">
         <v>0</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="46">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.19880409348281008</v>
+      <c r="M11" s="34">
+        <f t="shared" si="2"/>
+        <v>0.20782793294626919</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="66">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.60239181303437972</v>
+      <c r="O11" s="54">
+        <f t="shared" si="3"/>
+        <v>-0.58434413410746155</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C12" s="49">
-        <f ca="1">Sheet2!L12</f>
-        <v>0.20948075738866956</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="37">
+        <f>Sheet2!L12</f>
+        <v>0.19316301928611793</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="38">
         <v>0</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="47">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.20948075738866956</v>
+      <c r="G12" s="35">
+        <f t="shared" si="1"/>
+        <v>0.19316301928611793</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.20948075738866956</v>
-      </c>
-      <c r="J12" s="53" t="s">
+      <c r="I12" s="37">
+        <f t="shared" si="0"/>
+        <v>0.19316301928611793</v>
+      </c>
+      <c r="J12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="48">
         <v>1</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="63">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.79051924261133044</v>
+      <c r="M12" s="51">
+        <f t="shared" si="2"/>
+        <v>-0.8068369807138821</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="67">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.58103848522266088</v>
+      <c r="O12" s="55">
+        <f t="shared" si="3"/>
+        <v>-0.6136739614277642</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -12114,133 +11175,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC1937-116F-423F-96D5-E5C816579612}">
   <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="61"/>
+      <c r="B2" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:18" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="8"/>
+    <row r="4" spans="2:18" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="26">
-        <f ca="1">RANDBETWEEN(-200, 200)/1000</f>
-        <v>-0.02</v>
-      </c>
-      <c r="C5" s="27">
-        <f t="shared" ref="C5:D5" ca="1" si="0">RANDBETWEEN(-200, 200)/1000</f>
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="D5" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.183</v>
-      </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="64">
-        <f ca="1">Sheet3!O5</f>
-        <v>0.3850106766763825</v>
-      </c>
-      <c r="H5" s="68">
-        <f t="array" aca="1" ref="H5:H7" ca="1">MMULT(TRANSPOSE(Woutput), error)</f>
-        <v>-0.22314171466775357</v>
+      <c r="B5" s="96">
+        <f>Sheet2!E5</f>
+        <v>0.192</v>
+      </c>
+      <c r="C5" s="97">
+        <f>Sheet2!F5</f>
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D5" s="98">
+        <f>Sheet2!G5</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="E5" s="90"/>
+      <c r="F5" s="52">
+        <f>Sheet3!O5</f>
+        <v>0.41121067419698687</v>
+      </c>
+      <c r="H5" s="56">
+        <f t="array" ref="H5:H7">MMULT(TRANSPOSE(Woutput), error)</f>
+        <v>6.6815342117344009E-2</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="29">
-        <f t="shared" ref="B6:D12" ca="1" si="1">RANDBETWEEN(-200, 200)/1000</f>
-        <v>-0.13800000000000001</v>
-      </c>
-      <c r="C6" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="D6" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.186</v>
-      </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="65">
-        <f ca="1">Sheet3!O6</f>
-        <v>0.40993354677705784</v>
-      </c>
-      <c r="H6" s="69">
-        <f ca="1"/>
-        <v>3.8489160685898596E-2</v>
+      <c r="B6" s="99">
+        <f>Sheet2!E6</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="18">
+        <f>Sheet2!F6</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D6" s="100">
+        <f>Sheet2!G6</f>
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="E6" s="90"/>
+      <c r="F6" s="53">
+        <f>Sheet3!O6</f>
+        <v>0.40245434926626267</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0.17450004604327138</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="C7" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D7" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="65">
-        <f ca="1">Sheet3!O7</f>
-        <v>0.770021353352765</v>
-      </c>
-      <c r="H7" s="70">
-        <f ca="1"/>
-        <v>0.33404596028700123</v>
+      <c r="B7" s="99">
+        <f>Sheet2!E7</f>
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="C7" s="18">
+        <f>Sheet2!F7</f>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="D7" s="100">
+        <f>Sheet2!G7</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="53">
+        <f>Sheet3!O7</f>
+        <v>0.82242134839397374</v>
+      </c>
+      <c r="H7" s="58">
+        <v>8.0314556614219629E-2</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.06</v>
-      </c>
-      <c r="C8" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="D8" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.188</v>
-      </c>
-      <c r="E8" s="95"/>
-      <c r="F8" s="65">
-        <f ca="1">Sheet3!O8</f>
-        <v>0.41262082234028141</v>
+      <c r="B8" s="99">
+        <f>Sheet2!E8</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="C8" s="18">
+        <f>Sheet2!F8</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D8" s="100">
+        <f>Sheet2!G8</f>
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="E8" s="90"/>
+      <c r="F8" s="53">
+        <f>Sheet3!O8</f>
+        <v>0.39710696293836123</v>
       </c>
       <c r="N8">
         <f>EXP(E18)</f>
@@ -12248,22 +11307,22 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.16</v>
-      </c>
-      <c r="C9" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.14699999999999999</v>
-      </c>
-      <c r="D9" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="65">
-        <f ca="1">Sheet3!O9</f>
-        <v>0.40346190244911956</v>
+      <c r="B9" s="99">
+        <f>Sheet2!E9</f>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="C9" s="18">
+        <f>Sheet2!F9</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D9" s="100">
+        <f>Sheet2!G9</f>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="E9" s="90"/>
+      <c r="F9" s="53">
+        <f>Sheet3!O9</f>
+        <v>0.39228502197331472</v>
       </c>
       <c r="N9">
         <f>EXP(E19)</f>
@@ -12271,22 +11330,22 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.186</v>
-      </c>
-      <c r="C10" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="D10" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="65">
-        <f ca="1">Sheet3!O10</f>
-        <v>0.39593896299761705</v>
+      <c r="B10" s="99">
+        <f>Sheet2!E10</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C10" s="18">
+        <f>Sheet2!F10</f>
+        <v>0.111</v>
+      </c>
+      <c r="D10" s="100">
+        <f>Sheet2!G10</f>
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="53">
+        <f>Sheet3!O10</f>
+        <v>0.40657347885931561</v>
       </c>
       <c r="N10">
         <f>EXP(E20)</f>
@@ -12294,22 +11353,22 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="C11" s="30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1E-3</v>
-      </c>
-      <c r="D11" s="31">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E11" s="95"/>
-      <c r="F11" s="66">
-        <f ca="1">Sheet3!O11</f>
-        <v>-0.60239181303437972</v>
+      <c r="B11" s="99">
+        <f>Sheet2!E11</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="C11" s="18">
+        <f>Sheet2!F11</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D11" s="100">
+        <f>Sheet2!G11</f>
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="54">
+        <f>Sheet3!O11</f>
+        <v>-0.58434413410746155</v>
       </c>
       <c r="N11">
         <f>EXP(E21)</f>
@@ -12317,22 +11376,22 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.159</v>
-      </c>
-      <c r="C12" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="D12" s="34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.13</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="67">
-        <f ca="1">Sheet3!O12</f>
-        <v>-0.58103848522266088</v>
+      <c r="B12" s="101">
+        <f>Sheet2!E12</f>
+        <v>-2.8000000000000001E-2</v>
+      </c>
+      <c r="C12" s="102">
+        <f>Sheet2!F12</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="D12" s="103">
+        <f>Sheet2!G12</f>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="55">
+        <f>Sheet3!O12</f>
+        <v>-0.6136739614277642</v>
       </c>
       <c r="N12">
         <f>EXP(E22)</f>
@@ -12344,7 +11403,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -12354,21 +11413,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9" t="s">
-        <v>36</v>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -12378,24 +11437,22 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="68">
-        <f ca="1">H5</f>
-        <v>-0.22314171466775357</v>
-      </c>
-      <c r="H18" s="71">
-        <f t="array" aca="1" ref="H18:J25" ca="1">MMULT(input, TRANSPOSE(dot))</f>
+      <c r="E18" s="90"/>
+      <c r="F18" s="56">
+        <f>H5</f>
+        <v>6.6815342117344009E-2</v>
+      </c>
+      <c r="H18" s="59">
+        <f t="array" ref="H18:J25">MMULT(input, TRANSPOSE(dot))</f>
         <v>0</v>
       </c>
-      <c r="I18" s="71">
-        <f ca="1"/>
+      <c r="I18" s="59">
         <v>0</v>
       </c>
-      <c r="J18" s="71">
-        <f ca="1"/>
+      <c r="J18" s="59">
         <v>0</v>
       </c>
     </row>
@@ -12403,28 +11460,25 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="44">
         <v>1</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="69">
-        <f t="shared" ref="F19:F20" ca="1" si="2">H6</f>
-        <v>3.8489160685898596E-2</v>
-      </c>
-      <c r="H19" s="109">
-        <f ca="1"/>
-        <v>-0.22314171466775357</v>
-      </c>
-      <c r="I19" s="109">
-        <f ca="1"/>
-        <v>3.8489160685898596E-2</v>
-      </c>
-      <c r="J19" s="109">
-        <f ca="1"/>
-        <v>0.33404596028700123</v>
+      <c r="E19" s="90"/>
+      <c r="F19" s="57">
+        <f t="shared" ref="F19:F20" si="0">H6</f>
+        <v>0.17450004604327138</v>
+      </c>
+      <c r="H19" s="87">
+        <v>6.6815342117344009E-2</v>
+      </c>
+      <c r="I19" s="87">
+        <v>0.17450004604327138</v>
+      </c>
+      <c r="J19" s="87">
+        <v>8.0314556614219629E-2</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -12434,24 +11488,21 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.33404596028700123</v>
-      </c>
-      <c r="H20" s="71">
-        <f ca="1"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="58">
+        <f t="shared" si="0"/>
+        <v>8.0314556614219629E-2</v>
+      </c>
+      <c r="H20" s="59">
         <v>0</v>
       </c>
-      <c r="I20" s="71">
-        <f ca="1"/>
+      <c r="I20" s="59">
         <v>0</v>
       </c>
-      <c r="J20" s="71">
-        <f ca="1"/>
+      <c r="J20" s="59">
         <v>0</v>
       </c>
     </row>
@@ -12462,21 +11513,18 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="10">
         <v>0</v>
       </c>
-      <c r="E21" s="95"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="1"/>
-      <c r="H21" s="71">
-        <f ca="1"/>
+      <c r="H21" s="59">
         <v>0</v>
       </c>
-      <c r="I21" s="71">
-        <f ca="1"/>
+      <c r="I21" s="59">
         <v>0</v>
       </c>
-      <c r="J21" s="71">
-        <f ca="1"/>
+      <c r="J21" s="59">
         <v>0</v>
       </c>
     </row>
@@ -12487,21 +11535,18 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="95"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="1"/>
-      <c r="H22" s="71">
-        <f ca="1"/>
+      <c r="H22" s="59">
         <v>0</v>
       </c>
-      <c r="I22" s="71">
-        <f ca="1"/>
+      <c r="I22" s="59">
         <v>0</v>
       </c>
-      <c r="J22" s="71">
-        <f ca="1"/>
+      <c r="J22" s="59">
         <v>0</v>
       </c>
     </row>
@@ -12512,21 +11557,18 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="95"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="71">
-        <f ca="1"/>
+      <c r="H23" s="59">
         <v>0</v>
       </c>
-      <c r="I23" s="71">
-        <f ca="1"/>
+      <c r="I23" s="59">
         <v>0</v>
       </c>
-      <c r="J23" s="71">
-        <f ca="1"/>
+      <c r="J23" s="59">
         <v>0</v>
       </c>
     </row>
@@ -12534,28 +11576,25 @@
       <c r="B24" s="1">
         <v>6</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="42">
         <v>0</v>
       </c>
-      <c r="E24" s="95"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="71">
-        <f ca="1"/>
+      <c r="H24" s="59">
         <v>0</v>
       </c>
-      <c r="I24" s="71">
-        <f ca="1"/>
+      <c r="I24" s="59">
         <v>0</v>
       </c>
-      <c r="J24" s="71">
-        <f ca="1"/>
+      <c r="J24" s="59">
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" ref="O24:O26" si="3">EXP(I34)</f>
+        <f t="shared" ref="O24:O26" si="1">EXP(I34)</f>
         <v>1</v>
       </c>
     </row>
@@ -12563,49 +11602,46 @@
       <c r="B25" s="1">
         <v>7</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="43">
         <v>0</v>
       </c>
-      <c r="E25" s="95"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="71">
-        <f ca="1"/>
+      <c r="H25" s="59">
         <v>0</v>
       </c>
-      <c r="I25" s="71">
-        <f ca="1"/>
+      <c r="I25" s="59">
         <v>0</v>
       </c>
-      <c r="J25" s="71">
-        <f ca="1"/>
+      <c r="J25" s="59">
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -12623,206 +11659,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6AC6A-4676-474D-96E3-4B78DD500367}">
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="153" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="B2" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="6"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:15" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4"/>
-      <c r="E4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>38</v>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="81">
+      <c r="C5" s="69">
         <f>Sheet1!J7</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E5" s="64">
-        <f ca="1">Sheet3!O5</f>
-        <v>0.3850106766763825</v>
-      </c>
-      <c r="G5" s="72">
-        <f t="array" aca="1" ref="G5:I12" ca="1">TRANSPOSE(MMULT(hidden, TRANSPOSE(sum_error)))</f>
-        <v>2.6180726013994012E-2</v>
-      </c>
-      <c r="H5" s="73">
-        <f ca="1"/>
-        <v>6.5451815034985025E-2</v>
-      </c>
-      <c r="I5" s="74">
-        <f ca="1"/>
-        <v>-4.1966163757725695E-2</v>
+      <c r="E5" s="52">
+        <f>Sheet3!O5</f>
+        <v>0.41121067419698687</v>
+      </c>
+      <c r="G5" s="60">
+        <f t="array" ref="G5:I12">TRANSPOSE(MMULT(hidden, TRANSPOSE(sum_error)))</f>
+        <v>2.7962325845395108E-2</v>
+      </c>
+      <c r="H5" s="61">
+        <v>6.9905814613487771E-2</v>
+      </c>
+      <c r="I5" s="62">
+        <v>-4.4821963487471569E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="81">
+      <c r="C6" s="69">
         <f>Sheet1!J8</f>
         <v>0.17</v>
       </c>
-      <c r="E6" s="65">
-        <f ca="1">Sheet3!O6</f>
-        <v>0.40993354677705784</v>
-      </c>
-      <c r="G6" s="75">
-        <f ca="1"/>
-        <v>2.7875481180839934E-2</v>
-      </c>
-      <c r="H6" s="76">
-        <f ca="1"/>
-        <v>6.9688702952099835E-2</v>
-      </c>
-      <c r="I6" s="77">
-        <f ca="1"/>
-        <v>-4.4682756598699302E-2</v>
+      <c r="E6" s="53">
+        <f>Sheet3!O6</f>
+        <v>0.40245434926626267</v>
+      </c>
+      <c r="G6" s="63">
+        <v>2.7366895750105865E-2</v>
+      </c>
+      <c r="H6" s="64">
+        <v>6.8417239375264657E-2</v>
+      </c>
+      <c r="I6" s="65">
+        <v>-4.3867524070022632E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="81">
+      <c r="C7" s="69">
         <f>Sheet1!J9</f>
         <v>-0.109</v>
       </c>
-      <c r="E7" s="65">
-        <f ca="1">Sheet3!O7</f>
-        <v>0.770021353352765</v>
-      </c>
-      <c r="G7" s="75">
-        <f ca="1"/>
-        <v>5.2361452027988024E-2</v>
-      </c>
-      <c r="H7" s="76">
-        <f ca="1"/>
-        <v>0.13090363006997005</v>
-      </c>
-      <c r="I7" s="77">
-        <f ca="1"/>
-        <v>-8.3932327515451391E-2</v>
+      <c r="E7" s="53">
+        <f>Sheet3!O7</f>
+        <v>0.82242134839397374</v>
+      </c>
+      <c r="G7" s="63">
+        <v>5.5924651690790216E-2</v>
+      </c>
+      <c r="H7" s="64">
+        <v>0.13981162922697554</v>
+      </c>
+      <c r="I7" s="65">
+        <v>-8.9643926974943139E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E8" s="65">
-        <f ca="1">Sheet3!O8</f>
-        <v>0.41262082234028141</v>
-      </c>
-      <c r="G8" s="75">
-        <f ca="1"/>
-        <v>2.8058215919139137E-2</v>
-      </c>
-      <c r="H8" s="76">
-        <f ca="1"/>
-        <v>7.014553979784785E-2</v>
-      </c>
-      <c r="I8" s="77">
-        <f ca="1"/>
-        <v>-4.497566963509067E-2</v>
+      <c r="E8" s="53">
+        <f>Sheet3!O8</f>
+        <v>0.39710696293836123</v>
+      </c>
+      <c r="G8" s="63">
+        <v>2.7003273479808566E-2</v>
+      </c>
+      <c r="H8" s="64">
+        <v>6.7508183699521412E-2</v>
+      </c>
+      <c r="I8" s="65">
+        <v>-4.3284658960281372E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="65">
-        <f ca="1">Sheet3!O9</f>
-        <v>0.40346190244911956</v>
-      </c>
-      <c r="G9" s="75">
-        <f ca="1"/>
-        <v>2.7435409366540132E-2</v>
-      </c>
-      <c r="H9" s="76">
-        <f ca="1"/>
-        <v>6.8588523416350328E-2</v>
-      </c>
-      <c r="I9" s="77">
-        <f ca="1"/>
-        <v>-4.397734736695403E-2</v>
+      <c r="E9" s="53">
+        <f>Sheet3!O9</f>
+        <v>0.39228502197331472</v>
+      </c>
+      <c r="G9" s="63">
+        <v>2.6675381494185402E-2</v>
+      </c>
+      <c r="H9" s="64">
+        <v>6.6688453735463504E-2</v>
+      </c>
+      <c r="I9" s="65">
+        <v>-4.2759067395091305E-2</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="65">
-        <f ca="1">Sheet3!O10</f>
-        <v>0.39593896299761705</v>
-      </c>
-      <c r="G10" s="75">
-        <f ca="1"/>
-        <v>2.6923849483837962E-2</v>
-      </c>
-      <c r="H10" s="76">
-        <f ca="1"/>
-        <v>6.730962370959491E-2</v>
-      </c>
-      <c r="I10" s="77">
-        <f ca="1"/>
-        <v>-4.3157346966740256E-2</v>
+      <c r="E10" s="53">
+        <f>Sheet3!O10</f>
+        <v>0.40657347885931561</v>
+      </c>
+      <c r="G10" s="63">
+        <v>2.7646996562433464E-2</v>
+      </c>
+      <c r="H10" s="64">
+        <v>6.9117491406083656E-2</v>
+      </c>
+      <c r="I10" s="65">
+        <v>-4.4316509195665404E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="66">
-        <f ca="1">Sheet3!O11</f>
-        <v>-0.60239181303437972</v>
-      </c>
-      <c r="G11" s="75">
-        <f ca="1"/>
-        <v>-4.0962643286337821E-2</v>
-      </c>
-      <c r="H11" s="76">
-        <f ca="1"/>
-        <v>-0.10240660821584456</v>
-      </c>
-      <c r="I11" s="77">
-        <f ca="1"/>
-        <v>6.5660707620747383E-2</v>
+      <c r="E11" s="54">
+        <f>Sheet3!O11</f>
+        <v>-0.58434413410746155</v>
+      </c>
+      <c r="G11" s="63">
+        <v>-3.9735401119307387E-2</v>
+      </c>
+      <c r="H11" s="64">
+        <v>-9.9338502798268474E-2</v>
+      </c>
+      <c r="I11" s="65">
+        <v>6.3693510617713306E-2</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E12" s="67">
-        <f ca="1">Sheet3!O12</f>
-        <v>-0.58103848522266088</v>
-      </c>
-      <c r="G12" s="78">
-        <f ca="1"/>
-        <v>-3.951061699514094E-2</v>
-      </c>
-      <c r="H12" s="79">
-        <f ca="1"/>
-        <v>-9.8776542487852351E-2</v>
-      </c>
-      <c r="I12" s="80">
-        <f ca="1"/>
-        <v>6.3333194889270042E-2</v>
+      <c r="E12" s="55">
+        <f>Sheet3!O12</f>
+        <v>-0.6136739614277642</v>
+      </c>
+      <c r="G12" s="66">
+        <v>-4.1729829377087968E-2</v>
+      </c>
+      <c r="H12" s="67">
+        <v>-0.10432457344271992</v>
+      </c>
+      <c r="I12" s="68">
+        <v>6.6890461795626299E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -12830,10 +11843,10 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -12849,8 +11862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBBA38-B307-46B2-9C06-5F49FB2D15A8}">
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12861,351 +11874,351 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="61"/>
+      <c r="B2" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="6"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:15" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="82" t="s">
-        <v>44</v>
+    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="70" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="26">
+      <c r="B5" s="14">
         <f>Sheet1!F7</f>
         <v>-7.8E-2</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="15">
         <f>Sheet1!G7</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="16">
         <f>Sheet1!H7</f>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="F5" s="1">
         <v>0.05</v>
       </c>
-      <c r="H5" s="83">
-        <f ca="1">Sheet4!H18</f>
+      <c r="H5" s="71">
+        <f>Sheet4!H18</f>
         <v>0</v>
       </c>
-      <c r="I5" s="84">
-        <f ca="1">Sheet4!I18</f>
+      <c r="I5" s="72">
+        <f>Sheet4!I18</f>
         <v>0</v>
       </c>
-      <c r="J5" s="85">
-        <f ca="1">Sheet4!J18</f>
+      <c r="J5" s="73">
+        <f>Sheet4!J18</f>
         <v>0</v>
       </c>
-      <c r="L5" s="38">
-        <f ca="1">B5-$F$5*H5</f>
+      <c r="L5" s="26">
+        <f>B5-$F$5*H5</f>
         <v>-7.8E-2</v>
       </c>
-      <c r="M5" s="38">
-        <f t="shared" ref="M5:N12" ca="1" si="0">C5-$F$5*I5</f>
+      <c r="M5" s="26">
+        <f t="shared" ref="M5:N12" si="0">C5-$F$5*I5</f>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N5" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N5" s="26">
+        <f t="shared" si="0"/>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="103">
+      <c r="B6" s="81">
         <f>Sheet1!F8</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C6" s="104">
+      <c r="C6" s="82">
         <f>Sheet1!G8</f>
         <v>0.17</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="83">
         <f>Sheet1!H8</f>
         <v>-0.109</v>
       </c>
-      <c r="H6" s="106">
-        <f ca="1">Sheet4!H19</f>
-        <v>-0.22314171466775357</v>
-      </c>
-      <c r="I6" s="107">
-        <f ca="1">Sheet4!I19</f>
-        <v>3.8489160685898596E-2</v>
-      </c>
-      <c r="J6" s="108">
-        <f ca="1">Sheet4!J19</f>
-        <v>0.33404596028700123</v>
-      </c>
-      <c r="L6" s="109">
-        <f t="shared" ref="L6:L12" ca="1" si="1">B6-$F$5*H6</f>
-        <v>7.9157085733387686E-2</v>
-      </c>
-      <c r="M6" s="109">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.16807554196570509</v>
-      </c>
-      <c r="N6" s="109">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.12570229801435007</v>
+      <c r="H6" s="84">
+        <f>Sheet4!H19</f>
+        <v>6.6815342117344009E-2</v>
+      </c>
+      <c r="I6" s="85">
+        <f>Sheet4!I19</f>
+        <v>0.17450004604327138</v>
+      </c>
+      <c r="J6" s="86">
+        <f>Sheet4!J19</f>
+        <v>8.0314556614219629E-2</v>
+      </c>
+      <c r="L6" s="87">
+        <f t="shared" ref="L6:L12" si="1">B6-$F$5*H6</f>
+        <v>6.4659232894132807E-2</v>
+      </c>
+      <c r="M6" s="87">
+        <f t="shared" si="0"/>
+        <v>0.16127499769783643</v>
+      </c>
+      <c r="N6" s="87">
+        <f t="shared" si="0"/>
+        <v>-0.11301572783071098</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="29">
+      <c r="B7" s="17">
         <f>Sheet1!F9</f>
         <v>-0.158</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="18">
         <f>Sheet1!G9</f>
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="19">
         <f>Sheet1!H9</f>
         <v>-0.151</v>
       </c>
-      <c r="H7" s="86">
-        <f ca="1">Sheet4!H20</f>
+      <c r="H7" s="74">
+        <f>Sheet4!H20</f>
         <v>0</v>
       </c>
-      <c r="I7" s="87">
-        <f ca="1">Sheet4!I20</f>
+      <c r="I7" s="75">
+        <f>Sheet4!I20</f>
         <v>0</v>
       </c>
-      <c r="J7" s="88">
-        <f ca="1">Sheet4!J20</f>
+      <c r="J7" s="76">
+        <f>Sheet4!J20</f>
         <v>0</v>
       </c>
-      <c r="L7" s="38">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L7" s="26">
+        <f t="shared" si="1"/>
         <v>-0.158</v>
       </c>
-      <c r="M7" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="M7" s="26">
+        <f t="shared" si="0"/>
         <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="N7" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N7" s="26">
+        <f t="shared" si="0"/>
         <v>-0.151</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="29">
+      <c r="B8" s="17">
         <f>Sheet1!F10</f>
         <v>0.15</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="18">
         <f>Sheet1!G10</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="19">
         <f>Sheet1!H10</f>
         <v>0.14499999999999999</v>
       </c>
-      <c r="H8" s="86">
-        <f ca="1">Sheet4!H21</f>
+      <c r="H8" s="74">
+        <f>Sheet4!H21</f>
         <v>0</v>
       </c>
-      <c r="I8" s="87">
-        <f ca="1">Sheet4!I21</f>
+      <c r="I8" s="75">
+        <f>Sheet4!I21</f>
         <v>0</v>
       </c>
-      <c r="J8" s="88">
-        <f ca="1">Sheet4!J21</f>
+      <c r="J8" s="76">
+        <f>Sheet4!J21</f>
         <v>0</v>
       </c>
-      <c r="L8" s="38">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L8" s="26">
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="M8" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="M8" s="26">
+        <f t="shared" si="0"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="N8" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N8" s="26">
+        <f t="shared" si="0"/>
         <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="29">
+      <c r="B9" s="17">
         <f>Sheet1!F11</f>
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="18">
         <f>Sheet1!G11</f>
         <v>-5.5E-2</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="19">
         <f>Sheet1!H11</f>
         <v>0.188</v>
       </c>
-      <c r="H9" s="86">
-        <f ca="1">Sheet4!H22</f>
+      <c r="H9" s="74">
+        <f>Sheet4!H22</f>
         <v>0</v>
       </c>
-      <c r="I9" s="87">
-        <f ca="1">Sheet4!I22</f>
+      <c r="I9" s="75">
+        <f>Sheet4!I22</f>
         <v>0</v>
       </c>
-      <c r="J9" s="88">
-        <f ca="1">Sheet4!J22</f>
+      <c r="J9" s="76">
+        <f>Sheet4!J22</f>
         <v>0</v>
       </c>
-      <c r="L9" s="38">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L9" s="26">
+        <f t="shared" si="1"/>
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="M9" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="M9" s="26">
+        <f t="shared" si="0"/>
         <v>-5.5E-2</v>
       </c>
-      <c r="N9" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N9" s="26">
+        <f t="shared" si="0"/>
         <v>0.188</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29">
+      <c r="B10" s="17">
         <f>Sheet1!F12</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="18">
         <f>Sheet1!G12</f>
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="19">
         <f>Sheet1!H12</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H10" s="86">
-        <f ca="1">Sheet4!H23</f>
+      <c r="H10" s="74">
+        <f>Sheet4!H23</f>
         <v>0</v>
       </c>
-      <c r="I10" s="87">
-        <f ca="1">Sheet4!I23</f>
+      <c r="I10" s="75">
+        <f>Sheet4!I23</f>
         <v>0</v>
       </c>
-      <c r="J10" s="88">
-        <f ca="1">Sheet4!J23</f>
+      <c r="J10" s="76">
+        <f>Sheet4!J23</f>
         <v>0</v>
       </c>
-      <c r="L10" s="38">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L10" s="26">
+        <f t="shared" si="1"/>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="M10" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="M10" s="26">
+        <f t="shared" si="0"/>
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="N10" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N10" s="26">
+        <f t="shared" si="0"/>
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="29">
+      <c r="B11" s="17">
         <f>Sheet1!F13</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="18">
         <f>Sheet1!G13</f>
         <v>-0.06</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="19">
         <f>Sheet1!H13</f>
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="H11" s="86">
-        <f ca="1">Sheet4!H24</f>
+      <c r="H11" s="74">
+        <f>Sheet4!H24</f>
         <v>0</v>
       </c>
-      <c r="I11" s="87">
-        <f ca="1">Sheet4!I24</f>
+      <c r="I11" s="75">
+        <f>Sheet4!I24</f>
         <v>0</v>
       </c>
-      <c r="J11" s="88">
-        <f ca="1">Sheet4!J24</f>
+      <c r="J11" s="76">
+        <f>Sheet4!J24</f>
         <v>0</v>
       </c>
-      <c r="L11" s="38">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L11" s="26">
+        <f t="shared" si="1"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="M11" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="M11" s="26">
+        <f t="shared" si="0"/>
         <v>-0.06</v>
       </c>
-      <c r="N11" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N11" s="26">
+        <f t="shared" si="0"/>
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="32">
+      <c r="B12" s="20">
         <f>Sheet1!F14</f>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="21">
         <f>Sheet1!G14</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="22">
         <f>Sheet1!H14</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H12" s="89">
-        <f ca="1">Sheet4!H25</f>
+      <c r="H12" s="77">
+        <f>Sheet4!H25</f>
         <v>0</v>
       </c>
-      <c r="I12" s="90">
-        <f ca="1">Sheet4!I25</f>
+      <c r="I12" s="78">
+        <f>Sheet4!I25</f>
         <v>0</v>
       </c>
-      <c r="J12" s="91">
-        <f ca="1">Sheet4!J25</f>
+      <c r="J12" s="79">
+        <f>Sheet4!J25</f>
         <v>0</v>
       </c>
-      <c r="L12" s="38">
-        <f t="shared" ca="1" si="1"/>
+      <c r="L12" s="26">
+        <f t="shared" si="1"/>
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="M12" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="M12" s="26">
+        <f t="shared" si="0"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N12" s="38">
-        <f t="shared" ca="1" si="0"/>
+      <c r="N12" s="26">
+        <f t="shared" si="0"/>
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
@@ -13214,7 +12227,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>
@@ -13234,7 +12247,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13245,352 +12258,352 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="61"/>
+      <c r="B2" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="6"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:15" s="10" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="8" t="s">
+    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="26">
+      <c r="B5" s="14">
         <f>Sheet2!E5</f>
         <v>0.192</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="15">
         <f>Sheet2!F5</f>
         <v>0.17599999999999999</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="16">
         <f>Sheet2!G5</f>
         <v>1.2E-2</v>
       </c>
       <c r="F5" s="1">
         <v>0.05</v>
       </c>
-      <c r="H5" s="72">
-        <f ca="1">Sheet5!G5</f>
-        <v>2.6180726013994012E-2</v>
-      </c>
-      <c r="I5" s="73">
-        <f ca="1">Sheet5!H5</f>
-        <v>6.5451815034985025E-2</v>
-      </c>
-      <c r="J5" s="74">
-        <f ca="1">Sheet5!I5</f>
-        <v>-4.1966163757725695E-2</v>
-      </c>
-      <c r="L5" s="92">
-        <f ca="1">B5-$F$5*H5</f>
-        <v>0.1906909636993003</v>
-      </c>
-      <c r="M5" s="92">
-        <f t="shared" ref="M5:N12" ca="1" si="0">C5-$F$5*I5</f>
-        <v>0.17272740924825075</v>
-      </c>
-      <c r="N5" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4098308187886285E-2</v>
+      <c r="H5" s="60">
+        <f>Sheet5!G5</f>
+        <v>2.7962325845395108E-2</v>
+      </c>
+      <c r="I5" s="61">
+        <f>Sheet5!H5</f>
+        <v>6.9905814613487771E-2</v>
+      </c>
+      <c r="J5" s="62">
+        <f>Sheet5!I5</f>
+        <v>-4.4821963487471569E-2</v>
+      </c>
+      <c r="L5" s="80">
+        <f>B5-$F$5*H5</f>
+        <v>0.19060188370773024</v>
+      </c>
+      <c r="M5" s="80">
+        <f t="shared" ref="M5:N12" si="0">C5-$F$5*I5</f>
+        <v>0.1725047092693256</v>
+      </c>
+      <c r="N5" s="80">
+        <f t="shared" si="0"/>
+        <v>1.4241098174373579E-2</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="29">
+      <c r="B6" s="17">
         <f>Sheet2!E6</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="18">
         <f>Sheet2!F6</f>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="19">
         <f>Sheet2!G6</f>
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="H6" s="75">
-        <f ca="1">Sheet5!G6</f>
-        <v>2.7875481180839934E-2</v>
-      </c>
-      <c r="I6" s="76">
-        <f ca="1">Sheet5!H6</f>
-        <v>6.9688702952099835E-2</v>
-      </c>
-      <c r="J6" s="77">
-        <f ca="1">Sheet5!I6</f>
-        <v>-4.4682756598699302E-2</v>
-      </c>
-      <c r="L6" s="92">
-        <f t="shared" ref="L6:L12" ca="1" si="1">B6-$F$5*H6</f>
-        <v>6.8606225940958013E-2</v>
-      </c>
-      <c r="M6" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7515564852395007E-2</v>
-      </c>
-      <c r="N6" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.3765862170065034E-2</v>
+      <c r="H6" s="63">
+        <f>Sheet5!G6</f>
+        <v>2.7366895750105865E-2</v>
+      </c>
+      <c r="I6" s="64">
+        <f>Sheet5!H6</f>
+        <v>6.8417239375264657E-2</v>
+      </c>
+      <c r="J6" s="65">
+        <f>Sheet5!I6</f>
+        <v>-4.3867524070022632E-2</v>
+      </c>
+      <c r="L6" s="80">
+        <f t="shared" ref="L6:L12" si="1">B6-$F$5*H6</f>
+        <v>6.8631655212494716E-2</v>
+      </c>
+      <c r="M6" s="80">
+        <f t="shared" si="0"/>
+        <v>5.7579138031236765E-2</v>
+      </c>
+      <c r="N6" s="80">
+        <f t="shared" si="0"/>
+        <v>-4.380662379649887E-2</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="29">
+      <c r="B7" s="17">
         <f>Sheet2!E7</f>
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="18">
         <f>Sheet2!F7</f>
         <v>0.11700000000000001</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="19">
         <f>Sheet2!G7</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H7" s="75">
-        <f ca="1">Sheet5!G7</f>
-        <v>5.2361452027988024E-2</v>
-      </c>
-      <c r="I7" s="76">
-        <f ca="1">Sheet5!H7</f>
-        <v>0.13090363006997005</v>
-      </c>
-      <c r="J7" s="77">
-        <f ca="1">Sheet5!I7</f>
-        <v>-8.3932327515451391E-2</v>
-      </c>
-      <c r="L7" s="92">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.8618072601399405E-2</v>
-      </c>
-      <c r="M7" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1104548184965015</v>
-      </c>
-      <c r="N7" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.719661637577257E-2</v>
+      <c r="H7" s="63">
+        <f>Sheet5!G7</f>
+        <v>5.5924651690790216E-2</v>
+      </c>
+      <c r="I7" s="64">
+        <f>Sheet5!H7</f>
+        <v>0.13981162922697554</v>
+      </c>
+      <c r="J7" s="65">
+        <f>Sheet5!I7</f>
+        <v>-8.9643926974943139E-2</v>
+      </c>
+      <c r="L7" s="80">
+        <f t="shared" si="1"/>
+        <v>-6.8796232584539513E-2</v>
+      </c>
+      <c r="M7" s="80">
+        <f t="shared" si="0"/>
+        <v>0.11000941853865123</v>
+      </c>
+      <c r="N7" s="80">
+        <f t="shared" si="0"/>
+        <v>8.7482196348747154E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="29">
+      <c r="B8" s="17">
         <f>Sheet2!E8</f>
         <v>1.4E-2</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="18">
         <f>Sheet2!F8</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="19">
         <f>Sheet2!G8</f>
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="H8" s="75">
-        <f ca="1">Sheet5!G8</f>
-        <v>2.8058215919139137E-2</v>
-      </c>
-      <c r="I8" s="76">
-        <f ca="1">Sheet5!H8</f>
-        <v>7.014553979784785E-2</v>
-      </c>
-      <c r="J8" s="77">
-        <f ca="1">Sheet5!I8</f>
-        <v>-4.497566963509067E-2</v>
-      </c>
-      <c r="L8" s="92">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2597089204043043E-2</v>
-      </c>
-      <c r="M8" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4927230101076075E-3</v>
-      </c>
-      <c r="N8" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4.1751216518245461E-2</v>
+      <c r="H8" s="63">
+        <f>Sheet5!G8</f>
+        <v>2.7003273479808566E-2</v>
+      </c>
+      <c r="I8" s="64">
+        <f>Sheet5!H8</f>
+        <v>6.7508183699521412E-2</v>
+      </c>
+      <c r="J8" s="65">
+        <f>Sheet5!I8</f>
+        <v>-4.3284658960281372E-2</v>
+      </c>
+      <c r="L8" s="80">
+        <f t="shared" si="1"/>
+        <v>1.2649836326009571E-2</v>
+      </c>
+      <c r="M8" s="80">
+        <f t="shared" si="0"/>
+        <v>2.6245908150239294E-3</v>
+      </c>
+      <c r="N8" s="80">
+        <f t="shared" si="0"/>
+        <v>-4.1835767051985925E-2</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="29">
+      <c r="B9" s="17">
         <f>Sheet2!E9</f>
         <v>-1.2E-2</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="18">
         <f>Sheet2!F9</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="19">
         <f>Sheet2!G9</f>
         <v>0.14699999999999999</v>
       </c>
-      <c r="H9" s="75">
-        <f ca="1">Sheet5!G9</f>
-        <v>2.7435409366540132E-2</v>
-      </c>
-      <c r="I9" s="76">
-        <f ca="1">Sheet5!H9</f>
-        <v>6.8588523416350328E-2</v>
-      </c>
-      <c r="J9" s="77">
-        <f ca="1">Sheet5!I9</f>
-        <v>-4.397734736695403E-2</v>
-      </c>
-      <c r="L9" s="92">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.3371770468327007E-2</v>
-      </c>
-      <c r="M9" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.3570573829182492E-2</v>
-      </c>
-      <c r="N9" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.1491988673683477</v>
+      <c r="H9" s="63">
+        <f>Sheet5!G9</f>
+        <v>2.6675381494185402E-2</v>
+      </c>
+      <c r="I9" s="64">
+        <f>Sheet5!H9</f>
+        <v>6.6688453735463504E-2</v>
+      </c>
+      <c r="J9" s="65">
+        <f>Sheet5!I9</f>
+        <v>-4.2759067395091305E-2</v>
+      </c>
+      <c r="L9" s="80">
+        <f t="shared" si="1"/>
+        <v>-1.3333769074709271E-2</v>
+      </c>
+      <c r="M9" s="80">
+        <f t="shared" si="0"/>
+        <v>6.3665577313226834E-2</v>
+      </c>
+      <c r="N9" s="80">
+        <f t="shared" si="0"/>
+        <v>0.14913795336975455</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="29">
+      <c r="B10" s="17">
         <f>Sheet2!E10</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="18">
         <f>Sheet2!F10</f>
         <v>0.111</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="19">
         <f>Sheet2!G10</f>
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="H10" s="75">
-        <f ca="1">Sheet5!G10</f>
-        <v>2.6923849483837962E-2</v>
-      </c>
-      <c r="I10" s="76">
-        <f ca="1">Sheet5!H10</f>
-        <v>6.730962370959491E-2</v>
-      </c>
-      <c r="J10" s="77">
-        <f ca="1">Sheet5!I10</f>
-        <v>-4.3157346966740256E-2</v>
-      </c>
-      <c r="L10" s="92">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1653807525808101E-2</v>
-      </c>
-      <c r="M10" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.10763451881452026</v>
-      </c>
-      <c r="N10" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>-9.4842132651662997E-2</v>
+      <c r="H10" s="63">
+        <f>Sheet5!G10</f>
+        <v>2.7646996562433464E-2</v>
+      </c>
+      <c r="I10" s="64">
+        <f>Sheet5!H10</f>
+        <v>6.9117491406083656E-2</v>
+      </c>
+      <c r="J10" s="65">
+        <f>Sheet5!I10</f>
+        <v>-4.4316509195665404E-2</v>
+      </c>
+      <c r="L10" s="80">
+        <f t="shared" si="1"/>
+        <v>1.1617650171878326E-2</v>
+      </c>
+      <c r="M10" s="80">
+        <f t="shared" si="0"/>
+        <v>0.10754412542969582</v>
+      </c>
+      <c r="N10" s="80">
+        <f t="shared" si="0"/>
+        <v>-9.4784174540216731E-2</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="29">
+      <c r="B11" s="17">
         <f>Sheet2!E11</f>
         <v>1.6E-2</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="18">
         <f>Sheet2!F11</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="19">
         <f>Sheet2!G11</f>
         <v>-0.19800000000000001</v>
       </c>
-      <c r="H11" s="75">
-        <f ca="1">Sheet5!G11</f>
-        <v>-4.0962643286337821E-2</v>
-      </c>
-      <c r="I11" s="76">
-        <f ca="1">Sheet5!H11</f>
-        <v>-0.10240660821584456</v>
-      </c>
-      <c r="J11" s="77">
-        <f ca="1">Sheet5!I11</f>
-        <v>6.5660707620747383E-2</v>
-      </c>
-      <c r="L11" s="92">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.8048132164316891E-2</v>
-      </c>
-      <c r="M11" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18012033041079223</v>
-      </c>
-      <c r="N11" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.20128303538103737</v>
+      <c r="H11" s="63">
+        <f>Sheet5!G11</f>
+        <v>-3.9735401119307387E-2</v>
+      </c>
+      <c r="I11" s="64">
+        <f>Sheet5!H11</f>
+        <v>-9.9338502798268474E-2</v>
+      </c>
+      <c r="J11" s="65">
+        <f>Sheet5!I11</f>
+        <v>6.3693510617713306E-2</v>
+      </c>
+      <c r="L11" s="80">
+        <f t="shared" si="1"/>
+        <v>1.798677005596537E-2</v>
+      </c>
+      <c r="M11" s="80">
+        <f t="shared" si="0"/>
+        <v>0.17996692513991341</v>
+      </c>
+      <c r="N11" s="80">
+        <f t="shared" si="0"/>
+        <v>-0.20118467553088568</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="32">
+      <c r="B12" s="20">
         <f>Sheet2!E12</f>
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="21">
         <f>Sheet2!F12</f>
         <v>-1.6E-2</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="22">
         <f>Sheet2!G12</f>
         <v>0.14799999999999999</v>
       </c>
-      <c r="H12" s="78">
-        <f ca="1">Sheet5!G12</f>
-        <v>-3.951061699514094E-2</v>
-      </c>
-      <c r="I12" s="79">
-        <f ca="1">Sheet5!H12</f>
-        <v>-9.8776542487852351E-2</v>
-      </c>
-      <c r="J12" s="80">
-        <f ca="1">Sheet5!I12</f>
-        <v>6.3333194889270042E-2</v>
-      </c>
-      <c r="L12" s="92">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.6024469150242955E-2</v>
-      </c>
-      <c r="M12" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.1061172875607383E-2</v>
-      </c>
-      <c r="N12" s="92">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.14483334025553649</v>
+      <c r="H12" s="66">
+        <f>Sheet5!G12</f>
+        <v>-4.1729829377087968E-2</v>
+      </c>
+      <c r="I12" s="67">
+        <f>Sheet5!H12</f>
+        <v>-0.10432457344271992</v>
+      </c>
+      <c r="J12" s="68">
+        <f>Sheet5!I12</f>
+        <v>6.6890461795626299E-2</v>
+      </c>
+      <c r="L12" s="80">
+        <f t="shared" si="1"/>
+        <v>-2.5913508531145601E-2</v>
+      </c>
+      <c r="M12" s="80">
+        <f t="shared" si="0"/>
+        <v>-1.0783771327864004E-2</v>
+      </c>
+      <c r="N12" s="80">
+        <f t="shared" si="0"/>
+        <v>0.14465547691021868</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -13598,7 +12611,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L13" t="s">
         <v>12</v>

--- a/downloads/notebooks/word2vec_numerical_demo.xlsx
+++ b/downloads/notebooks/word2vec_numerical_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricKim\Documents\aegis4048.github.io-source\content\downloads\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B9827-B0C4-4FD3-912B-20945DAAF24F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E570EBD7-54BF-4C5B-8B36-B26CFD92107E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="7" xr2:uid="{1F5C5C51-52F8-4C6D-9E63-A97493B2A8A4}"/>
+    <workbookView minimized="1" xWindow="3876" yWindow="366" windowWidth="11310" windowHeight="12594" activeTab="1" xr2:uid="{1F5C5C51-52F8-4C6D-9E63-A97493B2A8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="neg_demo" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="A">Sheet1!$D$7:$D$14</definedName>
@@ -940,30 +941,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1000,6 +977,57 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,33 +1055,6 @@
     <xf numFmtId="164" fontId="9" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10180,8 +10181,8 @@
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -10245,7 +10246,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -10311,8 +10312,8 @@
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="241156" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -10376,7 +10377,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -10508,8 +10509,8 @@
       <xdr:rowOff>229887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -10573,7 +10574,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -12245,8 +12246,8 @@
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -12310,7 +12311,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -12376,8 +12377,8 @@
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="241156" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -12441,7 +12442,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -12573,8 +12574,8 @@
       <xdr:rowOff>229887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -12638,7 +12639,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -14189,8 +14190,8 @@
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79">
@@ -14254,7 +14255,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79">
@@ -14320,8 +14321,8 @@
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="241156" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80">
@@ -14385,7 +14386,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="81" name="TextBox 80">
@@ -14517,8 +14518,8 @@
       <xdr:rowOff>229887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -14582,7 +14583,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="84" name="TextBox 83">
@@ -16298,8 +16299,8 @@
       <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="TextBox 116">
@@ -16363,7 +16364,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="117" name="TextBox 116">
@@ -16429,8 +16430,8 @@
       <xdr:rowOff>220980</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="241156" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="TextBox 117">
@@ -16494,7 +16495,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="118" name="TextBox 117">
@@ -16626,8 +16627,8 @@
       <xdr:rowOff>229887</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249555" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="TextBox 120">
@@ -16691,7 +16692,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="121" name="TextBox 120">
@@ -58158,8 +58159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B5FEC7-FC6A-4142-907B-9AC559732443}">
   <dimension ref="B2:J16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -58172,30 +58173,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="4" spans="2:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
     </row>
     <row r="5" spans="2:10" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="2"/>
@@ -58238,7 +58239,7 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="98"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="14">
         <v>-7.8E-2</v>
       </c>
@@ -58248,7 +58249,7 @@
       <c r="H7" s="16">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="I7" s="98"/>
+      <c r="I7" s="137"/>
       <c r="J7" s="30">
         <f t="array" ref="J7:J9">TRANSPOSE(MMULT(TRANSPOSE(A), B))</f>
         <v>6.8000000000000005E-2</v>
@@ -58264,7 +58265,7 @@
       <c r="D8" s="44">
         <v>1</v>
       </c>
-      <c r="E8" s="98"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="81">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -58274,7 +58275,7 @@
       <c r="H8" s="83">
         <v>-0.109</v>
       </c>
-      <c r="I8" s="98"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="31">
         <v>0.17</v>
       </c>
@@ -58289,7 +58290,7 @@
       <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="98"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="17">
         <v>-0.158</v>
       </c>
@@ -58299,7 +58300,7 @@
       <c r="H9" s="19">
         <v>-0.151</v>
       </c>
-      <c r="I9" s="98"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="32">
         <v>-0.109</v>
       </c>
@@ -58314,7 +58315,7 @@
       <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="17">
         <v>0.15</v>
       </c>
@@ -58324,7 +58325,7 @@
       <c r="H10" s="19">
         <v>0.14499999999999999</v>
       </c>
-      <c r="I10" s="98"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -58337,7 +58338,7 @@
       <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="137"/>
       <c r="F11" s="17">
         <v>-9.7000000000000003E-2</v>
       </c>
@@ -58347,7 +58348,7 @@
       <c r="H11" s="19">
         <v>0.188</v>
       </c>
-      <c r="I11" s="98"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -58360,7 +58361,7 @@
       <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="137"/>
       <c r="F12" s="17">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -58370,7 +58371,7 @@
       <c r="H12" s="19">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="I12" s="98"/>
+      <c r="I12" s="137"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
@@ -58383,7 +58384,7 @@
       <c r="D13" s="42">
         <v>0</v>
       </c>
-      <c r="E13" s="98"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="17">
         <v>0.16800000000000001</v>
       </c>
@@ -58393,7 +58394,7 @@
       <c r="H13" s="19">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="I13" s="98"/>
+      <c r="I13" s="137"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -58406,7 +58407,7 @@
       <c r="D14" s="43">
         <v>0</v>
       </c>
-      <c r="E14" s="98"/>
+      <c r="E14" s="137"/>
       <c r="F14" s="20">
         <v>9.8000000000000004E-2</v>
       </c>
@@ -58416,7 +58417,7 @@
       <c r="H14" s="22">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I14" s="98"/>
+      <c r="I14" s="137"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -58456,7 +58457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E3C9C-B15E-4422-9BFC-70661AC95FB9}">
   <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -58470,18 +58471,18 @@
   <sheetData>
     <row r="2" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="49"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="2"/>
@@ -58551,10 +58552,10 @@
       <c r="I6" s="34">
         <v>2.0144000000000002E-2</v>
       </c>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="101"/>
+      <c r="K6" s="140"/>
       <c r="L6" s="24">
         <f t="shared" si="0"/>
         <v>0.20122717463313133</v>
@@ -58577,10 +58578,10 @@
       <c r="I7" s="34">
         <v>6.3549999999999995E-3</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="103"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="24">
         <f t="shared" si="0"/>
         <v>0.19847149581253729</v>
@@ -58695,10 +58696,10 @@
       <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="103"/>
+      <c r="K13" s="142"/>
       <c r="L13" s="12">
         <v>1</v>
       </c>
@@ -58712,8 +58713,8 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
       <c r="L14" s="13" t="s">
         <v>23</v>
       </c>
@@ -58802,21 +58803,21 @@
   <sheetData>
     <row r="2" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="49"/>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
     </row>
     <row r="3" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="2"/>
@@ -59208,16 +59209,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
       <c r="J2" s="49"/>
     </row>
     <row r="3" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -59255,7 +59256,7 @@
         <f>Sheet2!G5</f>
         <v>1.2E-2</v>
       </c>
-      <c r="E5" s="98"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="52">
         <f>Sheet3!O5</f>
         <v>0.41121067419698687</v>
@@ -59278,7 +59279,7 @@
         <f>Sheet2!G6</f>
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="E6" s="98"/>
+      <c r="E6" s="137"/>
       <c r="F6" s="53">
         <f>Sheet3!O6</f>
         <v>0.40245434926626267</v>
@@ -59300,7 +59301,7 @@
         <f>Sheet2!G7</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E7" s="98"/>
+      <c r="E7" s="137"/>
       <c r="F7" s="53">
         <f>Sheet3!O7</f>
         <v>0.82242134839397374</v>
@@ -59322,7 +59323,7 @@
         <f>Sheet2!G8</f>
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="E8" s="98"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="53">
         <f>Sheet3!O8</f>
         <v>0.39710696293836123</v>
@@ -59345,7 +59346,7 @@
         <f>Sheet2!G9</f>
         <v>0.14699999999999999</v>
       </c>
-      <c r="E9" s="98"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="53">
         <f>Sheet3!O9</f>
         <v>0.39228502197331472</v>
@@ -59368,7 +59369,7 @@
         <f>Sheet2!G10</f>
         <v>-9.7000000000000003E-2</v>
       </c>
-      <c r="E10" s="98"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="53">
         <f>Sheet3!O10</f>
         <v>0.40657347885931561</v>
@@ -59391,7 +59392,7 @@
         <f>Sheet2!G11</f>
         <v>-0.19800000000000001</v>
       </c>
-      <c r="E11" s="98"/>
+      <c r="E11" s="137"/>
       <c r="F11" s="54">
         <f>Sheet3!O11</f>
         <v>-0.58434413410746155</v>
@@ -59414,7 +59415,7 @@
         <f>Sheet2!G12</f>
         <v>0.14799999999999999</v>
       </c>
-      <c r="E12" s="98"/>
+      <c r="E12" s="137"/>
       <c r="F12" s="55">
         <f>Sheet3!O12</f>
         <v>-0.6136739614277642</v>
@@ -59466,7 +59467,7 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="98"/>
+      <c r="E18" s="137"/>
       <c r="F18" s="56">
         <f>H5</f>
         <v>6.6815342117344009E-2</v>
@@ -59492,7 +59493,7 @@
       <c r="D19" s="44">
         <v>1</v>
       </c>
-      <c r="E19" s="98"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="57">
         <f t="shared" ref="F19:F20" si="0">H6</f>
         <v>0.17450004604327138</v>
@@ -59517,7 +59518,7 @@
       <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="98"/>
+      <c r="E20" s="137"/>
       <c r="F20" s="58">
         <f t="shared" si="0"/>
         <v>8.0314556614219629E-2</v>
@@ -59542,7 +59543,7 @@
       <c r="D21" s="10">
         <v>0</v>
       </c>
-      <c r="E21" s="98"/>
+      <c r="E21" s="137"/>
       <c r="F21" s="1"/>
       <c r="H21" s="59">
         <v>0</v>
@@ -59564,7 +59565,7 @@
       <c r="D22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="98"/>
+      <c r="E22" s="137"/>
       <c r="F22" s="1"/>
       <c r="H22" s="59">
         <v>0</v>
@@ -59586,7 +59587,7 @@
       <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="98"/>
+      <c r="E23" s="137"/>
       <c r="F23" s="1"/>
       <c r="H23" s="59">
         <v>0</v>
@@ -59608,7 +59609,7 @@
       <c r="D24" s="42">
         <v>0</v>
       </c>
-      <c r="E24" s="98"/>
+      <c r="E24" s="137"/>
       <c r="F24" s="1"/>
       <c r="H24" s="59">
         <v>0</v>
@@ -59634,7 +59635,7 @@
       <c r="D25" s="43">
         <v>0</v>
       </c>
-      <c r="E25" s="98"/>
+      <c r="E25" s="137"/>
       <c r="F25" s="1"/>
       <c r="H25" s="59">
         <v>0</v>
@@ -59692,17 +59693,17 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
       <c r="M2" s="49"/>
@@ -59900,21 +59901,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
       <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -60273,7 +60274,7 @@
   <dimension ref="B2:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -60284,21 +60285,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
       <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -60656,8 +60657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F629630E-960C-4802-A00C-FAAB9CE2CA8B}">
   <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -60668,19 +60669,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
       <c r="O2" s="49"/>
     </row>
     <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -60720,24 +60721,24 @@
       <c r="F5" s="1">
         <v>0.05</v>
       </c>
-      <c r="H5" s="105">
+      <c r="H5" s="97">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="98">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="J5" s="107">
+      <c r="J5" s="99">
         <v>-1.41E-2</v>
       </c>
-      <c r="L5" s="119">
+      <c r="L5" s="111">
         <f>B5-$F$5*H5</f>
         <v>-0.5632100000000001</v>
       </c>
-      <c r="M5" s="120">
+      <c r="M5" s="112">
         <f t="shared" ref="M5:N5" si="0">C5-$F$5*I5</f>
         <v>0.336455</v>
       </c>
-      <c r="N5" s="121">
+      <c r="N5" s="113">
         <f t="shared" si="0"/>
         <v>0.16070500000000001</v>
       </c>
@@ -60752,24 +60753,24 @@
       <c r="D6" s="93">
         <v>1.56</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="100">
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="I6" s="64">
         <v>1.46E-2</v>
       </c>
-      <c r="J6" s="109">
+      <c r="J6" s="101">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="L6" s="113">
+      <c r="L6" s="105">
         <f t="shared" ref="L6:L15" si="1">B6-$F$5*H6</f>
         <v>-0.91492000000000007</v>
       </c>
-      <c r="M6" s="114">
+      <c r="M6" s="106">
         <f t="shared" ref="M6:M15" si="2">C6-$F$5*I6</f>
         <v>-0.44073000000000001</v>
       </c>
-      <c r="N6" s="115">
+      <c r="N6" s="107">
         <f t="shared" ref="N6:N15" si="3">D6-$F$5*J6</f>
         <v>1.55687</v>
       </c>
@@ -60784,24 +60785,24 @@
       <c r="D7" s="93">
         <v>-1.32</v>
       </c>
-      <c r="H7" s="108">
+      <c r="H7" s="100">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="I7" s="64">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="J7" s="109">
+      <c r="J7" s="101">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="L7" s="113">
+      <c r="L7" s="105">
         <f t="shared" si="1"/>
         <v>-1.2134499999999999</v>
       </c>
-      <c r="M7" s="114">
+      <c r="M7" s="106">
         <f t="shared" si="2"/>
         <v>-0.13447000000000001</v>
       </c>
-      <c r="N7" s="115">
+      <c r="N7" s="107">
         <f t="shared" si="3"/>
         <v>-1.322225</v>
       </c>
@@ -60816,24 +60817,24 @@
       <c r="D8" s="93">
         <v>-1.03</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="100">
         <v>1.41E-2</v>
       </c>
       <c r="I8" s="64">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="J8" s="109">
+      <c r="J8" s="101">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="L8" s="113">
+      <c r="L8" s="105">
         <f t="shared" si="1"/>
         <v>1.669295</v>
       </c>
-      <c r="M8" s="114">
+      <c r="M8" s="106">
         <f t="shared" si="2"/>
         <v>-0.15425</v>
       </c>
-      <c r="N8" s="115">
+      <c r="N8" s="107">
         <f t="shared" si="3"/>
         <v>-1.0339400000000001</v>
       </c>
@@ -60848,24 +60849,24 @@
       <c r="D9" s="93">
         <v>0.73</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="100">
         <v>-2.0500000000000001E-2</v>
       </c>
       <c r="I9" s="64">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="J9" s="109">
+      <c r="J9" s="101">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="L9" s="113">
+      <c r="L9" s="105">
         <f t="shared" si="1"/>
         <v>1.721025</v>
       </c>
-      <c r="M9" s="114">
+      <c r="M9" s="106">
         <f t="shared" si="2"/>
         <v>-1.4633700000000001</v>
       </c>
-      <c r="N9" s="115">
+      <c r="N9" s="107">
         <f t="shared" si="3"/>
         <v>0.72646999999999995</v>
       </c>
@@ -60880,24 +60881,24 @@
       <c r="D10" s="93">
         <v>-0.12</v>
       </c>
-      <c r="H10" s="108">
+      <c r="H10" s="100">
         <v>-9.7900000000000001E-2</v>
       </c>
       <c r="I10" s="64">
         <v>-8.77E-2</v>
       </c>
-      <c r="J10" s="109">
+      <c r="J10" s="101">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="L10" s="113">
+      <c r="L10" s="105">
         <f t="shared" si="1"/>
         <v>4.895E-3</v>
       </c>
-      <c r="M10" s="114">
+      <c r="M10" s="106">
         <f t="shared" si="2"/>
         <v>1.394385</v>
       </c>
-      <c r="N10" s="115">
+      <c r="N10" s="107">
         <f t="shared" si="3"/>
         <v>-0.12457</v>
       </c>
@@ -60912,24 +60913,24 @@
       <c r="D11" s="93">
         <v>-0.79</v>
       </c>
-      <c r="H11" s="108">
+      <c r="H11" s="100">
         <v>-7.17E-2</v>
       </c>
       <c r="I11" s="64">
         <v>-7.7499999999999999E-2</v>
       </c>
-      <c r="J11" s="109">
+      <c r="J11" s="101">
         <v>-8.9099999999999999E-2</v>
       </c>
-      <c r="L11" s="113">
+      <c r="L11" s="105">
         <f t="shared" si="1"/>
         <v>-5.6415E-2</v>
       </c>
-      <c r="M11" s="114">
+      <c r="M11" s="106">
         <f t="shared" si="2"/>
         <v>1.5238750000000001</v>
       </c>
-      <c r="N11" s="115">
+      <c r="N11" s="107">
         <f t="shared" si="3"/>
         <v>-0.78554500000000005</v>
       </c>
@@ -60944,24 +60945,24 @@
       <c r="D12" s="93">
         <v>-1.67</v>
       </c>
-      <c r="H12" s="108">
+      <c r="H12" s="100">
         <v>4.58E-2</v>
       </c>
       <c r="I12" s="64">
         <v>-7.8899999999999998E-2</v>
       </c>
-      <c r="J12" s="109">
+      <c r="J12" s="101">
         <v>-5.3199999999999997E-2</v>
       </c>
-      <c r="L12" s="113">
+      <c r="L12" s="105">
         <f t="shared" si="1"/>
         <v>0.79771000000000003</v>
       </c>
-      <c r="M12" s="114">
+      <c r="M12" s="106">
         <f t="shared" si="2"/>
         <v>1.8539450000000002</v>
       </c>
-      <c r="N12" s="115">
+      <c r="N12" s="107">
         <f t="shared" si="3"/>
         <v>-1.6673399999999998</v>
       </c>
@@ -60976,24 +60977,24 @@
       <c r="D13" s="93">
         <v>-0.48</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H13" s="100">
         <v>-4.9399999999999999E-2</v>
       </c>
       <c r="I13" s="64">
         <v>-8.6900000000000005E-2</v>
       </c>
-      <c r="J13" s="109">
+      <c r="J13" s="101">
         <v>2.47E-2</v>
       </c>
-      <c r="L13" s="113">
+      <c r="L13" s="105">
         <f t="shared" si="1"/>
         <v>-1.3675300000000001</v>
       </c>
-      <c r="M13" s="114">
+      <c r="M13" s="106">
         <f t="shared" si="2"/>
         <v>1.3243450000000001</v>
       </c>
-      <c r="N13" s="115">
+      <c r="N13" s="107">
         <f t="shared" si="3"/>
         <v>-0.48123499999999997</v>
       </c>
@@ -61008,24 +61009,24 @@
       <c r="D14" s="93">
         <v>-1.85</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="100">
         <v>-5.96E-2</v>
       </c>
       <c r="I14" s="64">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="J14" s="109">
+      <c r="J14" s="101">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="L14" s="113">
+      <c r="L14" s="105">
         <f t="shared" si="1"/>
         <v>0.67298000000000002</v>
       </c>
-      <c r="M14" s="114">
+      <c r="M14" s="106">
         <f t="shared" si="2"/>
         <v>1.985385</v>
       </c>
-      <c r="N14" s="115">
+      <c r="N14" s="107">
         <f t="shared" si="3"/>
         <v>-1.85209</v>
       </c>
@@ -61040,24 +61041,24 @@
       <c r="D15" s="96">
         <v>-1.86</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="102">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="103">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="J15" s="112">
+      <c r="J15" s="104">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L15" s="116">
+      <c r="L15" s="108">
         <f t="shared" si="1"/>
         <v>-1.523695</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="109">
         <f t="shared" si="2"/>
         <v>-1.74251</v>
       </c>
-      <c r="N15" s="118">
+      <c r="N15" s="110">
         <f t="shared" si="3"/>
         <v>-1.8635000000000002</v>
       </c>
@@ -61111,23 +61112,23 @@
       <c r="F19" s="1">
         <v>0.05</v>
       </c>
-      <c r="H19" s="129" t="s">
+      <c r="H19" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="130"/>
-      <c r="J19" s="131"/>
-      <c r="L19" s="122">
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
+      <c r="L19" s="114">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="M19" s="123">
+      <c r="M19" s="115">
         <v>0.34</v>
       </c>
-      <c r="N19" s="124">
+      <c r="N19" s="116">
         <v>0.16</v>
       </c>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="135"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="92">
@@ -61139,16 +61140,16 @@
       <c r="D20" s="93">
         <v>1.56</v>
       </c>
-      <c r="H20" s="132"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="134"/>
-      <c r="L20" s="125">
+      <c r="H20" s="151"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="L20" s="117">
         <v>-0.91</v>
       </c>
-      <c r="M20" s="126">
+      <c r="M20" s="118">
         <v>-0.44</v>
       </c>
-      <c r="N20" s="127">
+      <c r="N20" s="119">
         <v>1.56</v>
       </c>
     </row>
@@ -61162,16 +61163,16 @@
       <c r="D21" s="93">
         <v>-1.32</v>
       </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="134"/>
-      <c r="L21" s="125">
+      <c r="H21" s="151"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="L21" s="117">
         <v>-1.21</v>
       </c>
-      <c r="M21" s="126">
+      <c r="M21" s="118">
         <v>-0.13</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="119">
         <v>-1.32</v>
       </c>
     </row>
@@ -61185,16 +61186,16 @@
       <c r="D22" s="93">
         <v>-1.03</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="134"/>
-      <c r="L22" s="125">
+      <c r="H22" s="151"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="L22" s="117">
         <v>1.67</v>
       </c>
-      <c r="M22" s="126">
+      <c r="M22" s="118">
         <v>-0.15</v>
       </c>
-      <c r="N22" s="127">
+      <c r="N22" s="119">
         <v>-1.03</v>
       </c>
     </row>
@@ -61208,16 +61209,16 @@
       <c r="D23" s="93">
         <v>0.73</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="134"/>
-      <c r="L23" s="125">
+      <c r="H23" s="151"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="L23" s="117">
         <v>1.72</v>
       </c>
-      <c r="M23" s="126">
+      <c r="M23" s="118">
         <v>-1.46</v>
       </c>
-      <c r="N23" s="127">
+      <c r="N23" s="119">
         <v>0.73</v>
       </c>
     </row>
@@ -61231,16 +61232,16 @@
       <c r="D24" s="93">
         <v>-0.12</v>
       </c>
-      <c r="H24" s="135"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
-      <c r="L24" s="125">
+      <c r="H24" s="154"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="156"/>
+      <c r="L24" s="117">
         <v>0</v>
       </c>
-      <c r="M24" s="126">
+      <c r="M24" s="118">
         <v>1.39</v>
       </c>
-      <c r="N24" s="127">
+      <c r="N24" s="119">
         <v>-0.12</v>
       </c>
     </row>
@@ -61254,16 +61255,16 @@
       <c r="D25" s="93">
         <v>-0.79</v>
       </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="L25" s="125">
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="L25" s="117">
         <v>-0.06</v>
       </c>
-      <c r="M25" s="126">
+      <c r="M25" s="118">
         <v>1.52</v>
       </c>
-      <c r="N25" s="127">
+      <c r="N25" s="119">
         <v>-0.79</v>
       </c>
     </row>
@@ -61277,29 +61278,29 @@
       <c r="D26" s="93">
         <v>-1.67</v>
       </c>
-      <c r="E26" s="151" t="s">
+      <c r="E26" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="148">
+      <c r="F26" s="145"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="130">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="I26" s="149">
+      <c r="I26" s="131">
         <v>0.03</v>
       </c>
-      <c r="J26" s="150">
+      <c r="J26" s="132">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="L26" s="145">
+      <c r="L26" s="127">
         <f>B26-0.05*H26</f>
         <v>0.79847500000000005</v>
       </c>
-      <c r="M26" s="146">
+      <c r="M26" s="128">
         <f t="shared" ref="M26:N26" si="4">C26-0.05*I26</f>
         <v>1.8485</v>
       </c>
-      <c r="N26" s="147">
+      <c r="N26" s="129">
         <f t="shared" si="4"/>
         <v>-1.6720599999999999</v>
       </c>
@@ -61314,29 +61315,29 @@
       <c r="D27" s="93">
         <v>-0.48</v>
       </c>
-      <c r="E27" s="151" t="s">
+      <c r="E27" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="108">
+      <c r="F27" s="145"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="100">
         <v>-8.9599999999999999E-2</v>
       </c>
       <c r="I27" s="64">
         <v>3.09E-2</v>
       </c>
-      <c r="J27" s="109">
+      <c r="J27" s="101">
         <v>-6.4500000000000002E-2</v>
       </c>
-      <c r="L27" s="138">
+      <c r="L27" s="121">
         <f t="shared" ref="L27:L29" si="5">B27-0.05*H27</f>
         <v>-1.3655200000000001</v>
       </c>
-      <c r="M27" s="139">
+      <c r="M27" s="122">
         <f t="shared" ref="M27:M29" si="6">C27-0.05*I27</f>
         <v>1.3184550000000002</v>
       </c>
-      <c r="N27" s="140">
+      <c r="N27" s="123">
         <f t="shared" ref="N27:N29" si="7">D27-0.05*J27</f>
         <v>-0.476775</v>
       </c>
@@ -61351,29 +61352,29 @@
       <c r="D28" s="93">
         <v>-1.85</v>
       </c>
-      <c r="E28" s="151" t="s">
+      <c r="E28" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="152"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="108">
+      <c r="F28" s="145"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="100">
         <v>5.5899999999999998E-2</v>
       </c>
       <c r="I28" s="64">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="J28" s="109">
+      <c r="J28" s="101">
         <v>-6.08E-2</v>
       </c>
-      <c r="L28" s="138">
+      <c r="L28" s="121">
         <f t="shared" si="5"/>
         <v>0.66720500000000005</v>
       </c>
-      <c r="M28" s="139">
+      <c r="M28" s="122">
         <f t="shared" si="6"/>
         <v>1.9851049999999999</v>
       </c>
-      <c r="N28" s="140">
+      <c r="N28" s="123">
         <f t="shared" si="7"/>
         <v>-1.8469600000000002</v>
       </c>
@@ -61388,29 +61389,29 @@
       <c r="D29" s="96">
         <v>-1.86</v>
       </c>
-      <c r="E29" s="151" t="s">
+      <c r="E29" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="152"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="110">
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="102">
         <v>6.8900000000000003E-2</v>
       </c>
-      <c r="I29" s="111">
+      <c r="I29" s="103">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="J29" s="112">
+      <c r="J29" s="104">
         <v>-4.3499999999999997E-2</v>
       </c>
-      <c r="L29" s="141">
+      <c r="L29" s="124">
         <f t="shared" si="5"/>
         <v>-1.5234449999999999</v>
       </c>
-      <c r="M29" s="142">
+      <c r="M29" s="125">
         <f t="shared" si="6"/>
         <v>-1.744175</v>
       </c>
-      <c r="N29" s="143">
+      <c r="N29" s="126">
         <f t="shared" si="7"/>
         <v>-1.8578250000000001</v>
       </c>
@@ -61419,9 +61420,9 @@
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
       <c r="H30" t="s">
         <v>49</v>
       </c>
@@ -61431,15 +61432,29 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="H19:J24"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="H19:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D1CBDF-495C-449C-91A1-AC057764C2B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/downloads/notebooks/word2vec_numerical_demo.xlsx
+++ b/downloads/notebooks/word2vec_numerical_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EricKim\Documents\aegis4048.github.io-source\content\downloads\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E570EBD7-54BF-4C5B-8B36-B26CFD92107E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14683406-CED0-4E77-8F60-D6D7E59269C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3876" yWindow="366" windowWidth="11310" windowHeight="12594" activeTab="1" xr2:uid="{1F5C5C51-52F8-4C6D-9E63-A97493B2A8A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1F5C5C51-52F8-4C6D-9E63-A97493B2A8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1016,18 +1018,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1054,6 +1044,18 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2094,16 +2096,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>680418</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2414</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3277</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>275175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>641116</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2075</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>7642</xdr:rowOff>
+      <xdr:rowOff>3312</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2118,8 +2120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2349198" y="4113404"/>
-          <a:ext cx="1930468" cy="1475888"/>
+          <a:off x="2254641" y="838016"/>
+          <a:ext cx="1830195" cy="1537887"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2161,15 +2163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>634895</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>274166</xdr:rowOff>
+      <xdr:colOff>610466</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2682</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>790659</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>185486</xdr:rowOff>
+      <xdr:rowOff>194146</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2184,8 +2186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4913525" y="4103216"/>
-          <a:ext cx="647947" cy="1477230"/>
+          <a:off x="4693227" y="845667"/>
+          <a:ext cx="790659" cy="1521911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2292,16 +2294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4328</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>6590</xdr:rowOff>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1863</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>3202</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193701</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2316,8 +2318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6467203" y="5588240"/>
-          <a:ext cx="647930" cy="183302"/>
+          <a:off x="6290828" y="2381250"/>
+          <a:ext cx="424297" cy="185042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2418,16 +2420,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>633132</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>274544</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4054</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>610719</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1226</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>179480</xdr:rowOff>
+      <xdr:rowOff>190182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2442,8 +2444,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1271867" y="837640"/>
-          <a:ext cx="616323" cy="1462553"/>
+          <a:off x="1224110" y="852465"/>
+          <a:ext cx="559040" cy="1531678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2683,15 +2685,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>626408</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
+      <xdr:colOff>293033</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>630330</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1252</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>181160</xdr:rowOff>
+      <xdr:rowOff>192639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2706,8 +2708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7319121" y="839320"/>
-          <a:ext cx="642658" cy="1462553"/>
+          <a:off x="6591305" y="848793"/>
+          <a:ext cx="612559" cy="1537807"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,15 +2751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>632011</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
+      <xdr:colOff>607610</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>5351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>633132</xdr:colOff>
+      <xdr:colOff>608731</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>181161</xdr:rowOff>
+      <xdr:rowOff>191863</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2772,8 +2774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6047254" y="839321"/>
-          <a:ext cx="639856" cy="1462553"/>
+          <a:off x="5685826" y="850829"/>
+          <a:ext cx="611149" cy="1534995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3527,15 +3529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>636608</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>280688</xdr:rowOff>
+      <xdr:colOff>601029</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>7717</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>713</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3550,8 +3552,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4468073" y="844139"/>
-          <a:ext cx="648264" cy="556439"/>
+          <a:off x="4256948" y="904015"/>
+          <a:ext cx="618324" cy="573761"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4488,15 +4490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>636607</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>279722</xdr:rowOff>
+      <xdr:colOff>608033</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2702</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>185676</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609319</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4511,8 +4513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1665307" y="1601792"/>
-          <a:ext cx="695785" cy="1475674"/>
+          <a:off x="1826673" y="3473825"/>
+          <a:ext cx="610606" cy="1554816"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4554,15 +4556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>636608</xdr:colOff>
+      <xdr:colOff>608033</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>7013</xdr:rowOff>
+      <xdr:rowOff>9</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>7717</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>5368</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>602316</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>201471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4577,8 +4579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190918" y="3414548"/>
-          <a:ext cx="648264" cy="556440"/>
+          <a:off x="3045312" y="3473833"/>
+          <a:ext cx="603603" cy="593667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4620,15 +4622,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>638467</xdr:colOff>
+      <xdr:colOff>602888</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>277585</xdr:rowOff>
+      <xdr:rowOff>270581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4561</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2332</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>606877</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4643,8 +4645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3203247" y="914134"/>
-          <a:ext cx="648485" cy="1467125"/>
+          <a:off x="3040167" y="900912"/>
+          <a:ext cx="613309" cy="1538699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5880,15 +5882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>627160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>5198</xdr:rowOff>
+      <xdr:colOff>579535</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>276549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>639413</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>4822</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1681</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198644</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5903,8 +5905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4413046" y="849185"/>
-          <a:ext cx="1926899" cy="1470574"/>
+          <a:off x="4134797" y="835866"/>
+          <a:ext cx="1831085" cy="1516979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8192,15 +8194,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>628849</xdr:colOff>
+      <xdr:colOff>581224</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>274695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>639077</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184673</xdr:rowOff>
+      <xdr:colOff>610502</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8215,8 +8217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4412179" y="838575"/>
-          <a:ext cx="1922848" cy="1472078"/>
+          <a:off x="4150592" y="836169"/>
+          <a:ext cx="1834015" cy="1535055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -58163,16 +58165,16 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" customWidth="1"/>
-    <col min="2" max="2" width="5.3671875" customWidth="1"/>
-    <col min="4" max="4" width="9.5234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7890625" customWidth="1"/>
-    <col min="11" max="11" width="3.83984375" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="45.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:10" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="136" t="s">
         <v>43</v>
       </c>
@@ -58185,7 +58187,7 @@
       <c r="I2" s="136"/>
       <c r="J2" s="136"/>
     </row>
-    <row r="4" spans="2:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:10" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="138" t="s">
         <v>26</v>
       </c>
@@ -58198,7 +58200,7 @@
       <c r="I4" s="138"/>
       <c r="J4" s="138"/>
     </row>
-    <row r="5" spans="2:10" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -58208,7 +58210,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="2:10" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:10" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -58229,7 +58231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -58255,7 +58257,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -58280,7 +58282,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -58305,7 +58307,7 @@
         <v>-0.109</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -58328,7 +58330,7 @@
       <c r="I10" s="137"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -58351,7 +58353,7 @@
       <c r="I11" s="137"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -58374,7 +58376,7 @@
       <c r="I12" s="137"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -58397,7 +58399,7 @@
       <c r="I13" s="137"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -58420,7 +58422,7 @@
       <c r="I14" s="137"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="2:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>11</v>
       </c>
@@ -58431,7 +58433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:10" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -58457,19 +58459,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E3C9C-B15E-4422-9BFC-70661AC95FB9}">
   <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.26171875" customWidth="1"/>
-    <col min="9" max="9" width="11.89453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7890625" customWidth="1"/>
-    <col min="12" max="12" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:19" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49"/>
       <c r="C2" s="138" t="s">
         <v>27</v>
@@ -58484,7 +58486,7 @@
       <c r="K2" s="138"/>
       <c r="L2" s="138"/>
     </row>
-    <row r="3" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:19" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -58494,7 +58496,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:19" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
@@ -58512,7 +58514,7 @@
       </c>
       <c r="S4"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" s="69">
         <f>Sheet1!J7</f>
         <v>6.8000000000000005E-2</v>
@@ -58531,11 +58533,19 @@
         <v>4.1668000000000004E-2</v>
       </c>
       <c r="L5" s="23">
-        <f t="shared" ref="L5:L12" si="0">EXP(I5)/$O$20</f>
-        <v>0.20560533709849343</v>
+        <f>O5</f>
+        <v>0.12816069073770175</v>
+      </c>
+      <c r="N5">
+        <f>EXP(I5)</f>
+        <v>1.0425482952534584</v>
+      </c>
+      <c r="O5">
+        <f>N5/$N$13</f>
+        <v>0.12816069073770175</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="69">
         <f>Sheet1!J8</f>
         <v>0.17</v>
@@ -58557,11 +58567,19 @@
       </c>
       <c r="K6" s="140"/>
       <c r="L6" s="24">
-        <f t="shared" si="0"/>
-        <v>0.20122717463313133</v>
+        <f>O6</f>
+        <v>0.12543163548241967</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N12" si="0">EXP(I6)</f>
+        <v>1.0203482595976749</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O12" si="1">N6/$N$13</f>
+        <v>0.12543163548241967</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" s="69">
         <f>Sheet1!J9</f>
         <v>-0.109</v>
@@ -58583,12 +58601,20 @@
       </c>
       <c r="K7" s="142"/>
       <c r="L7" s="24">
+        <f>O7</f>
+        <v>0.12371392860728442</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.19847149581253729</v>
+        <v>1.0063752358560776</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.12371392860728442</v>
       </c>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E8" s="17">
         <v>1.4E-2</v>
       </c>
@@ -58602,11 +58628,19 @@
         <v>6.7679999999999997E-3</v>
       </c>
       <c r="L8" s="24">
+        <f>O8</f>
+        <v>0.12376503301213242</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>0.19855348146918061</v>
+        <v>1.0067909546685119</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.12376503301213242</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E9" s="17">
         <v>-1.2E-2</v>
       </c>
@@ -58620,11 +58654,19 @@
         <v>-5.448999999999999E-3</v>
       </c>
       <c r="L9" s="24">
+        <f>O9</f>
+        <v>0.12226219438571889</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="0"/>
-        <v>0.19614251098665736</v>
+        <v>0.99456581887227069</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.12226219438571889</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E10" s="17">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -58638,11 +58680,19 @@
         <v>3.0327E-2</v>
       </c>
       <c r="L10" s="24">
+        <f>O10</f>
+        <v>0.12671543117890707</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.2032867394296578</v>
+        <v>1.0307915476848617</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0.12671543117890707</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E11" s="17">
         <v>1.6E-2</v>
       </c>
@@ -58656,15 +58706,23 @@
         <v>5.2419999999999994E-2</v>
       </c>
       <c r="L11" s="45">
+        <f>O11</f>
+        <v>0.12954610914707523</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.20782793294626919</v>
+        <v>1.0538182532459692</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0.12954610914707523</v>
       </c>
       <c r="S11">
         <f>EXP(I5)</f>
         <v>1.0425482952534584</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="20">
         <v>-2.8000000000000001E-2</v>
       </c>
@@ -58678,15 +58736,23 @@
         <v>-2.0756E-2</v>
       </c>
       <c r="L12" s="46">
+        <f>O12</f>
+        <v>0.1204049774487604</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="0"/>
-        <v>0.19316301928611793</v>
+        <v>0.9794579231485756</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0.1204049774487604</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S15" si="1">EXP(I6)</f>
+        <f t="shared" ref="S12:S15" si="2">EXP(I6)</f>
         <v>1.0203482595976749</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -58703,67 +58769,71 @@
       <c r="L13" s="12">
         <v>1</v>
       </c>
+      <c r="N13">
+        <f>SUM(N5:N12)</f>
+        <v>8.134696288327401</v>
+      </c>
       <c r="O13" s="25">
-        <f>SUM(L5:L12)</f>
-        <v>1.6042776916620449</v>
+        <f>SUM(O5:O12)</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0063752358560776</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J14" s="143"/>
       <c r="K14" s="143"/>
       <c r="L14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0067909546685119</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N15" s="26">
         <f>SUM(L5:L12)</f>
-        <v>1.6042776916620449</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99456581887227069</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="O16">
         <f>EXP(I10)</f>
         <v>1.0307915476848617</v>
       </c>
     </row>
-    <row r="17" spans="15:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O17">
         <f>EXP(I11)</f>
         <v>1.0538182532459692</v>
       </c>
     </row>
-    <row r="18" spans="15:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O18">
         <f>EXP(I12)</f>
         <v>0.9794579231485756</v>
       </c>
     </row>
-    <row r="20" spans="15:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="15:19" x14ac:dyDescent="0.25">
       <c r="O20">
         <f>SUM(S11:S18)</f>
         <v>5.0706285642479934</v>
       </c>
     </row>
-    <row r="32" spans="15:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="15:19" x14ac:dyDescent="0.25">
       <c r="S32" t="e">
         <f>EXP(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S34" t="e">
         <f>SUM(S25:S32)</f>
         <v>#REF!</v>
@@ -58786,22 +58856,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDAFE45-AAB0-4B28-9194-70E42AE7E230}">
   <dimension ref="B2:S13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.47265625" customWidth="1"/>
-    <col min="4" max="4" width="11.7890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.3671875" customWidth="1"/>
-    <col min="8" max="8" width="8.7890625" customWidth="1"/>
-    <col min="12" max="12" width="4.3671875" customWidth="1"/>
-    <col min="14" max="14" width="8.7890625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:19" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="49"/>
       <c r="C2" s="138" t="s">
         <v>28</v>
@@ -58819,7 +58889,7 @@
       <c r="N2" s="138"/>
       <c r="O2" s="138"/>
     </row>
-    <row r="3" spans="2:19" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:19" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -58829,7 +58899,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:19" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
@@ -58862,10 +58932,10 @@
       </c>
       <c r="S4"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" s="29">
         <f>Sheet2!L5</f>
-        <v>0.20560533709849343</v>
+        <v>0.12816069073770175</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -58876,12 +58946,12 @@
       <c r="F5" s="1"/>
       <c r="G5" s="33">
         <f>C5-E5</f>
-        <v>0.20560533709849343</v>
+        <v>0.12816069073770175</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="29">
         <f t="shared" ref="I5:I12" si="0">C5</f>
-        <v>0.20560533709849343</v>
+        <v>0.12816069073770175</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>4</v>
@@ -58892,18 +58962,18 @@
       <c r="L5" s="1"/>
       <c r="M5" s="33">
         <f>I5-K5</f>
-        <v>0.20560533709849343</v>
+        <v>0.12816069073770175</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="52">
         <f>G5+M5</f>
-        <v>0.41121067419698687</v>
+        <v>0.25632138147540351</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="36">
         <f>Sheet2!L6</f>
-        <v>0.20122717463313133</v>
+        <v>0.12543163548241967</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1</v>
@@ -58914,12 +58984,12 @@
       <c r="F6" s="1"/>
       <c r="G6" s="34">
         <f t="shared" ref="G6:G12" si="1">C6-E6</f>
-        <v>0.20122717463313133</v>
+        <v>0.12543163548241967</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="36">
         <f t="shared" si="0"/>
-        <v>0.20122717463313133</v>
+        <v>0.12543163548241967</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>1</v>
@@ -58930,18 +59000,18 @@
       <c r="L6" s="1"/>
       <c r="M6" s="34">
         <f t="shared" ref="M6:M12" si="2">I6-K6</f>
-        <v>0.20122717463313133</v>
+        <v>0.12543163548241967</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="53">
         <f t="shared" ref="O6:O12" si="3">G6+M6</f>
-        <v>0.40245434926626267</v>
+        <v>0.25086327096483935</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <f>Sheet3!O5</f>
-        <v>0.41121067419698687</v>
+        <v>0.25632138147540351</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -58952,12 +59022,12 @@
       <c r="F7" s="1"/>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
-        <v>0.41121067419698687</v>
+        <v>0.25632138147540351</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="36">
         <f t="shared" si="0"/>
-        <v>0.41121067419698687</v>
+        <v>0.25632138147540351</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>2</v>
@@ -58968,18 +59038,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="34">
         <f t="shared" si="2"/>
-        <v>0.41121067419698687</v>
+        <v>0.25632138147540351</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="53">
         <f t="shared" si="3"/>
-        <v>0.82242134839397374</v>
+        <v>0.51264276295080702</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <f>Sheet2!L8</f>
-        <v>0.19855348146918061</v>
+        <v>0.12376503301213242</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>5</v>
@@ -58990,12 +59060,12 @@
       <c r="F8" s="1"/>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
-        <v>0.19855348146918061</v>
+        <v>0.12376503301213242</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="36">
         <f t="shared" si="0"/>
-        <v>0.19855348146918061</v>
+        <v>0.12376503301213242</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>5</v>
@@ -59006,18 +59076,18 @@
       <c r="L8" s="1"/>
       <c r="M8" s="34">
         <f t="shared" si="2"/>
-        <v>0.19855348146918061</v>
+        <v>0.12376503301213242</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="53">
         <f t="shared" si="3"/>
-        <v>0.39710696293836123</v>
+        <v>0.24753006602426483</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <f>Sheet2!L9</f>
-        <v>0.19614251098665736</v>
+        <v>0.12226219438571889</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -59028,12 +59098,12 @@
       <c r="F9" s="1"/>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
-        <v>0.19614251098665736</v>
+        <v>0.12226219438571889</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="36">
         <f t="shared" si="0"/>
-        <v>0.19614251098665736</v>
+        <v>0.12226219438571889</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>3</v>
@@ -59044,18 +59114,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="34">
         <f t="shared" si="2"/>
-        <v>0.19614251098665736</v>
+        <v>0.12226219438571889</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="53">
         <f t="shared" si="3"/>
-        <v>0.39228502197331472</v>
+        <v>0.24452438877143778</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <f>Sheet2!L10</f>
-        <v>0.2032867394296578</v>
+        <v>0.12671543117890707</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -59066,12 +59136,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
-        <v>0.2032867394296578</v>
+        <v>0.12671543117890707</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="36">
         <f t="shared" si="0"/>
-        <v>0.2032867394296578</v>
+        <v>0.12671543117890707</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>6</v>
@@ -59082,18 +59152,18 @@
       <c r="L10" s="1"/>
       <c r="M10" s="34">
         <f t="shared" si="2"/>
-        <v>0.2032867394296578</v>
+        <v>0.12671543117890707</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="53">
         <f t="shared" si="3"/>
-        <v>0.40657347885931561</v>
+        <v>0.25343086235781415</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <f>Sheet2!L11</f>
-        <v>0.20782793294626919</v>
+        <v>0.12954610914707523</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>0</v>
@@ -59104,12 +59174,12 @@
       <c r="F11" s="1"/>
       <c r="G11" s="50">
         <f t="shared" si="1"/>
-        <v>-0.79217206705373078</v>
+        <v>-0.87045389085292479</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="36">
         <f t="shared" si="0"/>
-        <v>0.20782793294626919</v>
+        <v>0.12954610914707523</v>
       </c>
       <c r="J11" s="28" t="s">
         <v>0</v>
@@ -59120,18 +59190,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="34">
         <f t="shared" si="2"/>
-        <v>0.20782793294626919</v>
+        <v>0.12954610914707523</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="54">
         <f t="shared" si="3"/>
-        <v>-0.58434413410746155</v>
+        <v>-0.74090778170584959</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <f>Sheet2!L12</f>
-        <v>0.19316301928611793</v>
+        <v>0.1204049774487604</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>7</v>
@@ -59142,12 +59212,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="35">
         <f t="shared" si="1"/>
-        <v>0.19316301928611793</v>
+        <v>0.1204049774487604</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="37">
         <f t="shared" si="0"/>
-        <v>0.19316301928611793</v>
+        <v>0.1204049774487604</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>7</v>
@@ -59158,15 +59228,15 @@
       <c r="L12" s="1"/>
       <c r="M12" s="51">
         <f t="shared" si="2"/>
-        <v>-0.8068369807138821</v>
+        <v>-0.87959502255123956</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="55">
         <f t="shared" si="3"/>
-        <v>-0.6136739614277642</v>
+        <v>-0.75919004510247912</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>23</v>
       </c>
@@ -59202,13 +59272,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AEC1937-116F-423F-96D5-E5C816579612}">
   <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:18" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="138" t="s">
         <v>29</v>
       </c>
@@ -59221,7 +59291,7 @@
       <c r="I2" s="138"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -59231,7 +59301,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:18" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
@@ -59243,7 +59313,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="89">
         <f>Sheet2!E5</f>
         <v>0.192</v>
@@ -59259,14 +59329,14 @@
       <c r="E5" s="137"/>
       <c r="F5" s="52">
         <f>Sheet3!O5</f>
-        <v>0.41121067419698687</v>
+        <v>0.25632138147540351</v>
       </c>
       <c r="H5" s="56">
         <f t="array" ref="H5:H7">MMULT(TRANSPOSE(Woutput), error)</f>
-        <v>6.6815342117344009E-2</v>
+        <v>4.6168238081372825E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="92">
         <f>Sheet2!E6</f>
         <v>7.0000000000000007E-2</v>
@@ -59282,13 +59352,13 @@
       <c r="E6" s="137"/>
       <c r="F6" s="53">
         <f>Sheet3!O6</f>
-        <v>0.40245434926626267</v>
+        <v>0.25086327096483935</v>
       </c>
       <c r="H6" s="57">
-        <v>0.17450004604327138</v>
+        <v>4.8881745022435918E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="92">
         <f>Sheet2!E7</f>
         <v>-6.6000000000000003E-2</v>
@@ -59304,13 +59374,13 @@
       <c r="E7" s="137"/>
       <c r="F7" s="53">
         <f>Sheet3!O7</f>
-        <v>0.82242134839397374</v>
+        <v>0.51264276295080702</v>
       </c>
       <c r="H7" s="58">
-        <v>8.0314556614219629E-2</v>
+        <v>6.8896078136456262E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="92">
         <f>Sheet2!E8</f>
         <v>1.4E-2</v>
@@ -59326,14 +59396,14 @@
       <c r="E8" s="137"/>
       <c r="F8" s="53">
         <f>Sheet3!O8</f>
-        <v>0.39710696293836123</v>
+        <v>0.24753006602426483</v>
       </c>
       <c r="N8">
         <f>EXP(E18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="92">
         <f>Sheet2!E9</f>
         <v>-1.2E-2</v>
@@ -59349,14 +59419,14 @@
       <c r="E9" s="137"/>
       <c r="F9" s="53">
         <f>Sheet3!O9</f>
-        <v>0.39228502197331472</v>
+        <v>0.24452438877143778</v>
       </c>
       <c r="N9">
         <f>EXP(E19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="92">
         <f>Sheet2!E10</f>
         <v>1.2999999999999999E-2</v>
@@ -59372,14 +59442,14 @@
       <c r="E10" s="137"/>
       <c r="F10" s="53">
         <f>Sheet3!O10</f>
-        <v>0.40657347885931561</v>
+        <v>0.25343086235781415</v>
       </c>
       <c r="N10">
         <f>EXP(E20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="92">
         <f>Sheet2!E11</f>
         <v>1.6E-2</v>
@@ -59395,14 +59465,14 @@
       <c r="E11" s="137"/>
       <c r="F11" s="54">
         <f>Sheet3!O11</f>
-        <v>-0.58434413410746155</v>
+        <v>-0.74090778170584959</v>
       </c>
       <c r="N11">
         <f>EXP(E21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="94">
         <f>Sheet2!E12</f>
         <v>-2.8000000000000001E-2</v>
@@ -59418,14 +59488,14 @@
       <c r="E12" s="137"/>
       <c r="F12" s="55">
         <f>Sheet3!O12</f>
-        <v>-0.6136739614277642</v>
+        <v>-0.75919004510247912</v>
       </c>
       <c r="N12">
         <f>EXP(E22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -59440,7 +59510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:15" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
@@ -59457,7 +59527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>0</v>
       </c>
@@ -59470,7 +59540,7 @@
       <c r="E18" s="137"/>
       <c r="F18" s="56">
         <f>H5</f>
-        <v>6.6815342117344009E-2</v>
+        <v>4.6168238081372825E-2</v>
       </c>
       <c r="H18" s="59">
         <f t="array" ref="H18:J25">MMULT(input, TRANSPOSE(dot))</f>
@@ -59483,7 +59553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1</v>
       </c>
@@ -59496,19 +59566,19 @@
       <c r="E19" s="137"/>
       <c r="F19" s="57">
         <f t="shared" ref="F19:F20" si="0">H6</f>
-        <v>0.17450004604327138</v>
+        <v>4.8881745022435918E-2</v>
       </c>
       <c r="H19" s="87">
-        <v>6.6815342117344009E-2</v>
+        <v>4.6168238081372825E-2</v>
       </c>
       <c r="I19" s="87">
-        <v>0.17450004604327138</v>
+        <v>4.8881745022435918E-2</v>
       </c>
       <c r="J19" s="87">
-        <v>8.0314556614219629E-2</v>
+        <v>6.8896078136456262E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>2</v>
       </c>
@@ -59521,7 +59591,7 @@
       <c r="E20" s="137"/>
       <c r="F20" s="58">
         <f t="shared" si="0"/>
-        <v>8.0314556614219629E-2</v>
+        <v>6.8896078136456262E-2</v>
       </c>
       <c r="H20" s="59">
         <v>0</v>
@@ -59533,7 +59603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>3</v>
       </c>
@@ -59555,7 +59625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>4</v>
       </c>
@@ -59577,7 +59647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>5</v>
       </c>
@@ -59599,7 +59669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>6</v>
       </c>
@@ -59625,7 +59695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>7</v>
       </c>
@@ -59651,7 +59721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>32</v>
       </c>
@@ -59666,7 +59736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>33</v>
       </c>
@@ -59686,13 +59756,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B6AC6A-4676-474D-96E3-4B78DD500367}">
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="138" t="s">
         <v>35</v>
       </c>
@@ -59710,7 +59780,7 @@
       <c r="N2" s="49"/>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:15" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -59720,7 +59790,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
@@ -59732,140 +59802,140 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" s="69">
         <f>Sheet1!J7</f>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="E5" s="52">
         <f>Sheet3!O5</f>
-        <v>0.41121067419698687</v>
+        <v>0.25632138147540351</v>
       </c>
       <c r="G5" s="60">
         <f t="array" ref="G5:I12">TRANSPOSE(MMULT(hidden, TRANSPOSE(sum_error)))</f>
-        <v>2.7962325845395108E-2</v>
+        <v>1.742985394032744E-2</v>
       </c>
       <c r="H5" s="61">
-        <v>6.9905814613487771E-2</v>
+        <v>4.3574634850818597E-2</v>
       </c>
       <c r="I5" s="62">
-        <v>-4.4821963487471569E-2</v>
+        <v>-2.7939030580818983E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="69">
         <f>Sheet1!J8</f>
         <v>0.17</v>
       </c>
       <c r="E6" s="53">
         <f>Sheet3!O6</f>
-        <v>0.40245434926626267</v>
+        <v>0.25086327096483935</v>
       </c>
       <c r="G6" s="63">
-        <v>2.7366895750105865E-2</v>
+        <v>1.7058702425609078E-2</v>
       </c>
       <c r="H6" s="64">
-        <v>6.8417239375264657E-2</v>
+        <v>4.2646756064022691E-2</v>
       </c>
       <c r="I6" s="65">
-        <v>-4.3867524070022632E-2</v>
+        <v>-2.7344096535167488E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" s="69">
         <f>Sheet1!J9</f>
         <v>-0.109</v>
       </c>
       <c r="E7" s="53">
         <f>Sheet3!O7</f>
-        <v>0.82242134839397374</v>
+        <v>0.51264276295080702</v>
       </c>
       <c r="G7" s="63">
-        <v>5.5924651690790216E-2</v>
+        <v>3.4859707880654879E-2</v>
       </c>
       <c r="H7" s="64">
-        <v>0.13981162922697554</v>
+        <v>8.7149269701637194E-2</v>
       </c>
       <c r="I7" s="65">
-        <v>-8.9643926974943139E-2</v>
+        <v>-5.5878061161637967E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E8" s="53">
         <f>Sheet3!O8</f>
-        <v>0.39710696293836123</v>
+        <v>0.24753006602426483</v>
       </c>
       <c r="G8" s="63">
-        <v>2.7003273479808566E-2</v>
+        <v>1.6832044489650009E-2</v>
       </c>
       <c r="H8" s="64">
-        <v>6.7508183699521412E-2</v>
+        <v>4.2080111224125027E-2</v>
       </c>
       <c r="I8" s="65">
-        <v>-4.3284658960281372E-2</v>
+        <v>-2.6980777196644868E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E9" s="53">
         <f>Sheet3!O9</f>
-        <v>0.39228502197331472</v>
+        <v>0.24452438877143778</v>
       </c>
       <c r="G9" s="63">
-        <v>2.6675381494185402E-2</v>
+        <v>1.6627658436457769E-2</v>
       </c>
       <c r="H9" s="64">
-        <v>6.6688453735463504E-2</v>
+        <v>4.1569146091144427E-2</v>
       </c>
       <c r="I9" s="65">
-        <v>-4.2759067395091305E-2</v>
+        <v>-2.6653158376086717E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E10" s="53">
         <f>Sheet3!O10</f>
-        <v>0.40657347885931561</v>
+        <v>0.25343086235781415</v>
       </c>
       <c r="G10" s="63">
-        <v>2.7646996562433464E-2</v>
+        <v>1.7233298640331362E-2</v>
       </c>
       <c r="H10" s="64">
-        <v>6.9117491406083656E-2</v>
+        <v>4.3083246600828407E-2</v>
       </c>
       <c r="I10" s="65">
-        <v>-4.4316509195665404E-2</v>
+        <v>-2.7623963997001743E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E11" s="54">
         <f>Sheet3!O11</f>
-        <v>-0.58434413410746155</v>
+        <v>-0.74090778170584959</v>
       </c>
       <c r="G11" s="63">
-        <v>-3.9735401119307387E-2</v>
+        <v>-5.0381729155997777E-2</v>
       </c>
       <c r="H11" s="64">
-        <v>-9.9338502798268474E-2</v>
+        <v>-0.12595432288999445</v>
       </c>
       <c r="I11" s="65">
-        <v>6.3693510617713306E-2</v>
+        <v>8.0758948205937611E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="55">
         <f>Sheet3!O12</f>
-        <v>-0.6136739614277642</v>
+        <v>-0.75919004510247912</v>
       </c>
       <c r="G12" s="66">
-        <v>-4.1729829377087968E-2</v>
+        <v>-5.1624923066968587E-2</v>
       </c>
       <c r="H12" s="67">
-        <v>-0.10432457344271992</v>
+        <v>-0.12906230766742147</v>
       </c>
       <c r="I12" s="68">
-        <v>6.6890461795626299E-2</v>
+        <v>8.2751714916170227E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -59889,18 +59959,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBBA38-B307-46B2-9C06-5F49FB2D15A8}">
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.41796875" customWidth="1"/>
-    <col min="6" max="6" width="8.47265625" customWidth="1"/>
-    <col min="7" max="7" width="8.734375" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="138" t="s">
         <v>29</v>
       </c>
@@ -59918,7 +59987,7 @@
       <c r="N2" s="138"/>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:15" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -59928,7 +59997,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="70" t="s">
         <v>41</v>
       </c>
@@ -59942,7 +60011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f>Sheet1!F7</f>
         <v>-7.8E-2</v>
@@ -59983,7 +60052,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="81">
         <f>Sheet1!F8</f>
         <v>6.8000000000000005E-2</v>
@@ -59998,30 +60067,30 @@
       </c>
       <c r="H6" s="84">
         <f>Sheet4!H19</f>
-        <v>6.6815342117344009E-2</v>
+        <v>4.6168238081372825E-2</v>
       </c>
       <c r="I6" s="85">
         <f>Sheet4!I19</f>
-        <v>0.17450004604327138</v>
+        <v>4.8881745022435918E-2</v>
       </c>
       <c r="J6" s="86">
         <f>Sheet4!J19</f>
-        <v>8.0314556614219629E-2</v>
+        <v>6.8896078136456262E-2</v>
       </c>
       <c r="L6" s="87">
         <f t="shared" ref="L6:L12" si="1">B6-$F$5*H6</f>
-        <v>6.4659232894132807E-2</v>
+        <v>6.5691588095931369E-2</v>
       </c>
       <c r="M6" s="87">
         <f t="shared" si="0"/>
-        <v>0.16127499769783643</v>
+        <v>0.16755591274887821</v>
       </c>
       <c r="N6" s="87">
         <f t="shared" si="0"/>
-        <v>-0.11301572783071098</v>
+        <v>-0.11244480390682281</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <f>Sheet1!F9</f>
         <v>-0.158</v>
@@ -60059,7 +60128,7 @@
         <v>-0.151</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="17">
         <f>Sheet1!F10</f>
         <v>0.15</v>
@@ -60097,7 +60166,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
         <f>Sheet1!F11</f>
         <v>-9.7000000000000003E-2</v>
@@ -60135,7 +60204,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <f>Sheet1!F12</f>
         <v>3.5999999999999997E-2</v>
@@ -60173,7 +60242,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
         <f>Sheet1!F13</f>
         <v>0.16800000000000001</v>
@@ -60211,7 +60280,7 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
         <f>Sheet1!F14</f>
         <v>9.8000000000000004E-2</v>
@@ -60249,7 +60318,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -60273,18 +60342,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB89C98-9F93-409B-833D-5EF93BC381E0}">
   <dimension ref="B2:O13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.41796875" customWidth="1"/>
-    <col min="6" max="6" width="8.47265625" customWidth="1"/>
-    <col min="7" max="7" width="8.734375" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="138" t="s">
         <v>35</v>
       </c>
@@ -60302,7 +60370,7 @@
       <c r="N2" s="138"/>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:15" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -60312,7 +60380,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="70" t="s">
         <v>39</v>
       </c>
@@ -60326,7 +60394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <f>Sheet2!E5</f>
         <v>0.192</v>
@@ -60344,30 +60412,30 @@
       </c>
       <c r="H5" s="60">
         <f>Sheet5!G5</f>
-        <v>2.7962325845395108E-2</v>
+        <v>1.742985394032744E-2</v>
       </c>
       <c r="I5" s="61">
         <f>Sheet5!H5</f>
-        <v>6.9905814613487771E-2</v>
+        <v>4.3574634850818597E-2</v>
       </c>
       <c r="J5" s="62">
         <f>Sheet5!I5</f>
-        <v>-4.4821963487471569E-2</v>
+        <v>-2.7939030580818983E-2</v>
       </c>
       <c r="L5" s="80">
         <f>B5-$F$5*H5</f>
-        <v>0.19060188370773024</v>
+        <v>0.19112850730298364</v>
       </c>
       <c r="M5" s="80">
         <f t="shared" ref="M5:N12" si="0">C5-$F$5*I5</f>
-        <v>0.1725047092693256</v>
+        <v>0.17382126825745906</v>
       </c>
       <c r="N5" s="80">
         <f t="shared" si="0"/>
-        <v>1.4241098174373579E-2</v>
+        <v>1.3396951529040949E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="17">
         <f>Sheet2!E6</f>
         <v>7.0000000000000007E-2</v>
@@ -60382,30 +60450,30 @@
       </c>
       <c r="H6" s="63">
         <f>Sheet5!G6</f>
-        <v>2.7366895750105865E-2</v>
+        <v>1.7058702425609078E-2</v>
       </c>
       <c r="I6" s="64">
         <f>Sheet5!H6</f>
-        <v>6.8417239375264657E-2</v>
+        <v>4.2646756064022691E-2</v>
       </c>
       <c r="J6" s="65">
         <f>Sheet5!I6</f>
-        <v>-4.3867524070022632E-2</v>
+        <v>-2.7344096535167488E-2</v>
       </c>
       <c r="L6" s="80">
         <f t="shared" ref="L6:L12" si="1">B6-$F$5*H6</f>
-        <v>6.8631655212494716E-2</v>
+        <v>6.914706487871955E-2</v>
       </c>
       <c r="M6" s="80">
         <f t="shared" si="0"/>
-        <v>5.7579138031236765E-2</v>
+        <v>5.8867662196798863E-2</v>
       </c>
       <c r="N6" s="80">
         <f t="shared" si="0"/>
-        <v>-4.380662379649887E-2</v>
+        <v>-4.4632795173241625E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <f>Sheet2!E7</f>
         <v>-6.6000000000000003E-2</v>
@@ -60420,30 +60488,30 @@
       </c>
       <c r="H7" s="63">
         <f>Sheet5!G7</f>
-        <v>5.5924651690790216E-2</v>
+        <v>3.4859707880654879E-2</v>
       </c>
       <c r="I7" s="64">
         <f>Sheet5!H7</f>
-        <v>0.13981162922697554</v>
+        <v>8.7149269701637194E-2</v>
       </c>
       <c r="J7" s="65">
         <f>Sheet5!I7</f>
-        <v>-8.9643926974943139E-2</v>
+        <v>-5.5878061161637967E-2</v>
       </c>
       <c r="L7" s="80">
         <f t="shared" si="1"/>
-        <v>-6.8796232584539513E-2</v>
+        <v>-6.7742985394032743E-2</v>
       </c>
       <c r="M7" s="80">
         <f t="shared" si="0"/>
-        <v>0.11000941853865123</v>
+        <v>0.11264253651491815</v>
       </c>
       <c r="N7" s="80">
         <f t="shared" si="0"/>
-        <v>8.7482196348747154E-2</v>
+        <v>8.5793903058081905E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="17">
         <f>Sheet2!E8</f>
         <v>1.4E-2</v>
@@ -60458,30 +60526,30 @@
       </c>
       <c r="H8" s="63">
         <f>Sheet5!G8</f>
-        <v>2.7003273479808566E-2</v>
+        <v>1.6832044489650009E-2</v>
       </c>
       <c r="I8" s="64">
         <f>Sheet5!H8</f>
-        <v>6.7508183699521412E-2</v>
+        <v>4.2080111224125027E-2</v>
       </c>
       <c r="J8" s="65">
         <f>Sheet5!I8</f>
-        <v>-4.3284658960281372E-2</v>
+        <v>-2.6980777196644868E-2</v>
       </c>
       <c r="L8" s="80">
         <f t="shared" si="1"/>
-        <v>1.2649836326009571E-2</v>
+        <v>1.31583977755175E-2</v>
       </c>
       <c r="M8" s="80">
         <f t="shared" si="0"/>
-        <v>2.6245908150239294E-3</v>
+        <v>3.8959944387937486E-3</v>
       </c>
       <c r="N8" s="80">
         <f t="shared" si="0"/>
-        <v>-4.1835767051985925E-2</v>
+        <v>-4.2650961140167754E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
         <f>Sheet2!E9</f>
         <v>-1.2E-2</v>
@@ -60496,30 +60564,30 @@
       </c>
       <c r="H9" s="63">
         <f>Sheet5!G9</f>
-        <v>2.6675381494185402E-2</v>
+        <v>1.6627658436457769E-2</v>
       </c>
       <c r="I9" s="64">
         <f>Sheet5!H9</f>
-        <v>6.6688453735463504E-2</v>
+        <v>4.1569146091144427E-2</v>
       </c>
       <c r="J9" s="65">
         <f>Sheet5!I9</f>
-        <v>-4.2759067395091305E-2</v>
+        <v>-2.6653158376086717E-2</v>
       </c>
       <c r="L9" s="80">
         <f t="shared" si="1"/>
-        <v>-1.3333769074709271E-2</v>
+        <v>-1.2831382921822889E-2</v>
       </c>
       <c r="M9" s="80">
         <f t="shared" si="0"/>
-        <v>6.3665577313226834E-2</v>
+        <v>6.4921542695442785E-2</v>
       </c>
       <c r="N9" s="80">
         <f t="shared" si="0"/>
-        <v>0.14913795336975455</v>
+        <v>0.14833265791880432</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <f>Sheet2!E10</f>
         <v>1.2999999999999999E-2</v>
@@ -60534,30 +60602,30 @@
       </c>
       <c r="H10" s="63">
         <f>Sheet5!G10</f>
-        <v>2.7646996562433464E-2</v>
+        <v>1.7233298640331362E-2</v>
       </c>
       <c r="I10" s="64">
         <f>Sheet5!H10</f>
-        <v>6.9117491406083656E-2</v>
+        <v>4.3083246600828407E-2</v>
       </c>
       <c r="J10" s="65">
         <f>Sheet5!I10</f>
-        <v>-4.4316509195665404E-2</v>
+        <v>-2.7623963997001743E-2</v>
       </c>
       <c r="L10" s="80">
         <f t="shared" si="1"/>
-        <v>1.1617650171878326E-2</v>
+        <v>1.2138335067983431E-2</v>
       </c>
       <c r="M10" s="80">
         <f t="shared" si="0"/>
-        <v>0.10754412542969582</v>
+        <v>0.10884583766995858</v>
       </c>
       <c r="N10" s="80">
         <f t="shared" si="0"/>
-        <v>-9.4784174540216731E-2</v>
+        <v>-9.5618801800149922E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
         <f>Sheet2!E11</f>
         <v>1.6E-2</v>
@@ -60572,30 +60640,30 @@
       </c>
       <c r="H11" s="63">
         <f>Sheet5!G11</f>
-        <v>-3.9735401119307387E-2</v>
+        <v>-5.0381729155997777E-2</v>
       </c>
       <c r="I11" s="64">
         <f>Sheet5!H11</f>
-        <v>-9.9338502798268474E-2</v>
+        <v>-0.12595432288999445</v>
       </c>
       <c r="J11" s="65">
         <f>Sheet5!I11</f>
-        <v>6.3693510617713306E-2</v>
+        <v>8.0758948205937611E-2</v>
       </c>
       <c r="L11" s="80">
         <f t="shared" si="1"/>
-        <v>1.798677005596537E-2</v>
+        <v>1.8519086457799889E-2</v>
       </c>
       <c r="M11" s="80">
         <f t="shared" si="0"/>
-        <v>0.17996692513991341</v>
+        <v>0.18129771614449972</v>
       </c>
       <c r="N11" s="80">
         <f t="shared" si="0"/>
-        <v>-0.20118467553088568</v>
+        <v>-0.2020379474102969</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20">
         <f>Sheet2!E12</f>
         <v>-2.8000000000000001E-2</v>
@@ -60610,30 +60678,30 @@
       </c>
       <c r="H12" s="66">
         <f>Sheet5!G12</f>
-        <v>-4.1729829377087968E-2</v>
+        <v>-5.1624923066968587E-2</v>
       </c>
       <c r="I12" s="67">
         <f>Sheet5!H12</f>
-        <v>-0.10432457344271992</v>
+        <v>-0.12906230766742147</v>
       </c>
       <c r="J12" s="68">
         <f>Sheet5!I12</f>
-        <v>6.6890461795626299E-2</v>
+        <v>8.2751714916170227E-2</v>
       </c>
       <c r="L12" s="80">
         <f t="shared" si="1"/>
-        <v>-2.5913508531145601E-2</v>
+        <v>-2.5418753846651571E-2</v>
       </c>
       <c r="M12" s="80">
         <f t="shared" si="0"/>
-        <v>-1.0783771327864004E-2</v>
+        <v>-9.546884616628927E-3</v>
       </c>
       <c r="N12" s="80">
         <f t="shared" si="0"/>
-        <v>0.14465547691021868</v>
+        <v>0.1438624142541915</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -60661,14 +60729,13 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="8.41796875" customWidth="1"/>
-    <col min="6" max="6" width="8.47265625" customWidth="1"/>
-    <col min="7" max="7" width="8.734375" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:15" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="138"/>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
@@ -60684,7 +60751,7 @@
       <c r="N2" s="138"/>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="2:15" ht="7.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:15" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="88"/>
       <c r="E3" s="88"/>
@@ -60694,7 +60761,7 @@
       <c r="I3" s="88"/>
       <c r="J3" s="88"/>
     </row>
-    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:15" s="6" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>39</v>
       </c>
@@ -60708,7 +60775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="89">
         <v>-0.56000000000000005</v>
       </c>
@@ -60743,7 +60810,7 @@
         <v>0.16070500000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="92">
         <v>-0.91</v>
       </c>
@@ -60775,7 +60842,7 @@
         <v>1.55687</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="92">
         <v>-1.21</v>
       </c>
@@ -60807,7 +60874,7 @@
         <v>-1.322225</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="92">
         <v>1.67</v>
       </c>
@@ -60839,7 +60906,7 @@
         <v>-1.0339400000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="92">
         <v>1.72</v>
       </c>
@@ -60871,7 +60938,7 @@
         <v>0.72646999999999995</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="92">
         <v>0</v>
       </c>
@@ -60903,7 +60970,7 @@
         <v>-0.12457</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="92">
         <v>-0.06</v>
       </c>
@@ -60935,7 +61002,7 @@
         <v>-0.78554500000000005</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="92">
         <v>0.8</v>
       </c>
@@ -60967,7 +61034,7 @@
         <v>-1.6673399999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="92">
         <v>-1.37</v>
       </c>
@@ -60999,7 +61066,7 @@
         <v>-0.48123499999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="92">
         <v>0.67</v>
       </c>
@@ -61031,7 +61098,7 @@
         <v>-1.85209</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="94">
         <v>-1.52</v>
       </c>
@@ -61063,7 +61130,7 @@
         <v>-1.8635000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>49</v>
       </c>
@@ -61074,7 +61141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="70" t="s">
         <v>39</v>
@@ -61099,7 +61166,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="89">
         <v>-0.56000000000000005</v>
       </c>
@@ -61112,11 +61179,11 @@
       <c r="F19" s="1">
         <v>0.05</v>
       </c>
-      <c r="H19" s="148" t="s">
+      <c r="H19" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
       <c r="L19" s="114">
         <v>-0.56000000000000005</v>
       </c>
@@ -61130,7 +61197,7 @@
       <c r="Q19" s="134"/>
       <c r="R19" s="135"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="92">
         <v>-0.91</v>
       </c>
@@ -61140,9 +61207,9 @@
       <c r="D20" s="93">
         <v>1.56</v>
       </c>
-      <c r="H20" s="151"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="149"/>
       <c r="L20" s="117">
         <v>-0.91</v>
       </c>
@@ -61153,7 +61220,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="92">
         <v>-1.21</v>
       </c>
@@ -61163,9 +61230,9 @@
       <c r="D21" s="93">
         <v>-1.32</v>
       </c>
-      <c r="H21" s="151"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="149"/>
       <c r="L21" s="117">
         <v>-1.21</v>
       </c>
@@ -61176,7 +61243,7 @@
         <v>-1.32</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="92">
         <v>1.67</v>
       </c>
@@ -61186,9 +61253,9 @@
       <c r="D22" s="93">
         <v>-1.03</v>
       </c>
-      <c r="H22" s="151"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="149"/>
       <c r="L22" s="117">
         <v>1.67</v>
       </c>
@@ -61199,7 +61266,7 @@
         <v>-1.03</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="92">
         <v>1.72</v>
       </c>
@@ -61209,9 +61276,9 @@
       <c r="D23" s="93">
         <v>0.73</v>
       </c>
-      <c r="H23" s="151"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="149"/>
       <c r="L23" s="117">
         <v>1.72</v>
       </c>
@@ -61222,7 +61289,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="92">
         <v>0</v>
       </c>
@@ -61232,9 +61299,9 @@
       <c r="D24" s="93">
         <v>-0.12</v>
       </c>
-      <c r="H24" s="154"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="156"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
       <c r="L24" s="117">
         <v>0</v>
       </c>
@@ -61245,7 +61312,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="92">
         <v>-0.06</v>
       </c>
@@ -61268,7 +61335,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="92">
         <v>0.8</v>
       </c>
@@ -61278,11 +61345,11 @@
       <c r="D26" s="93">
         <v>-1.67</v>
       </c>
-      <c r="E26" s="144" t="s">
+      <c r="E26" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="145"/>
-      <c r="G26" s="146"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="130">
         <v>3.0499999999999999E-2</v>
       </c>
@@ -61305,7 +61372,7 @@
         <v>-1.6720599999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="92">
         <v>-1.37</v>
       </c>
@@ -61315,11 +61382,11 @@
       <c r="D27" s="93">
         <v>-0.48</v>
       </c>
-      <c r="E27" s="144" t="s">
+      <c r="E27" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="145"/>
-      <c r="G27" s="146"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="155"/>
       <c r="H27" s="100">
         <v>-8.9599999999999999E-2</v>
       </c>
@@ -61342,7 +61409,7 @@
         <v>-0.476775</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="92">
         <v>0.67</v>
       </c>
@@ -61352,11 +61419,11 @@
       <c r="D28" s="93">
         <v>-1.85</v>
       </c>
-      <c r="E28" s="144" t="s">
+      <c r="E28" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="145"/>
-      <c r="G28" s="146"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="155"/>
       <c r="H28" s="100">
         <v>5.5899999999999998E-2</v>
       </c>
@@ -61379,7 +61446,7 @@
         <v>-1.8469600000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="94">
         <v>-1.52</v>
       </c>
@@ -61389,11 +61456,11 @@
       <c r="D29" s="96">
         <v>-1.86</v>
       </c>
-      <c r="E29" s="144" t="s">
+      <c r="E29" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="155"/>
       <c r="H29" s="102">
         <v>6.8900000000000003E-2</v>
       </c>
@@ -61416,13 +61483,13 @@
         <v>-1.8578250000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
       <c r="H30" t="s">
         <v>49</v>
       </c>
@@ -61432,13 +61499,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E30:G30"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="H19:J24"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E27:G27"/>
     <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -61453,7 +61520,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
